--- a/SingleCycle/back_单周期硬布线控制器表达式自动生成.xlsx
+++ b/SingleCycle/back_单周期硬布线控制器表达式自动生成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13800" windowHeight="12060"/>
+    <workbookView windowWidth="28200" windowHeight="12060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="118">
   <si>
     <t>#</t>
   </si>
@@ -192,28 +192,22 @@
     <t>JAL</t>
   </si>
   <si>
-    <t>ALU_Shamt</t>
+    <t>SRLV</t>
   </si>
   <si>
-    <t>Shamt1</t>
+    <t>XORI</t>
   </si>
   <si>
-    <t>Shamt0</t>
+    <t>SH</t>
   </si>
   <si>
-    <t>lh</t>
-  </si>
-  <si>
-    <t>bgez</t>
+    <t>BLEZ</t>
   </si>
   <si>
     <t>可增加列，自定义控制信号</t>
   </si>
   <si>
     <t>SLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>SRA</t>
@@ -271,18 +265,6 @@
   </si>
   <si>
     <t>SW</t>
-  </si>
-  <si>
-    <t>SRLV</t>
-  </si>
-  <si>
-    <t>XORI</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>BLEZ</t>
   </si>
   <si>
     <t>逻辑表达式最小项</t>
@@ -735,6 +717,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>控制信号</t>
   </si>
   <si>
@@ -845,12 +830,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,17 +978,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Segoe UI Black"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Segoe UI Black"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1021,9 +1006,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,11 +1029,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1054,9 +1046,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1067,10 +1067,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1097,23 +1098,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,15 +1114,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1241,13 +1234,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,43 +1306,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,37 +1324,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,13 +1348,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,55 +1396,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1637,6 +1630,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1661,15 +1669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1681,21 +1680,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1729,6 +1713,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1737,142 +1730,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1882,7 +1875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2068,11 +2061,17 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2415,8 +2414,8 @@
   </sheetPr>
   <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2433,17 +2432,19 @@
     <col min="18" max="19" width="3.37142857142857" style="43" customWidth="1"/>
     <col min="20" max="20" width="3.12380952380952" style="43" customWidth="1"/>
     <col min="21" max="21" width="3.37142857142857" style="43" customWidth="1"/>
-    <col min="22" max="22" width="10.247619047619" style="43" customWidth="1"/>
-    <col min="23" max="23" width="9.24761904761905" style="43" customWidth="1"/>
-    <col min="24" max="24" width="10.6285714285714" style="43" customWidth="1"/>
-    <col min="25" max="25" width="9.5047619047619" style="43" customWidth="1"/>
+    <col min="22" max="22" width="12.9142857142857" style="43" customWidth="1"/>
+    <col min="23" max="23" width="13.1714285714286" style="43" customWidth="1"/>
+    <col min="24" max="24" width="13.0285714285714" style="43" customWidth="1"/>
+    <col min="25" max="25" width="11.6761904761905" style="43" customWidth="1"/>
     <col min="26" max="27" width="9.24761904761905" style="43" customWidth="1"/>
     <col min="28" max="31" width="9" style="43" customWidth="1"/>
-    <col min="32" max="33" width="9" style="44" customWidth="1"/>
-    <col min="34" max="38" width="9" style="45" customWidth="1"/>
+    <col min="32" max="32" width="9" style="44" customWidth="1"/>
+    <col min="33" max="33" width="11.3047619047619" style="44" customWidth="1"/>
+    <col min="34" max="34" width="13.0380952380952" style="45" customWidth="1"/>
+    <col min="35" max="37" width="9" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="24.75" spans="1:39">
+    <row r="1" s="17" customFormat="1" ht="24.75" spans="1:38">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -2543,31 +2544,28 @@
       <c r="AG1" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="65" t="s">
+      <c r="AH1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="66" t="s">
+      <c r="AI1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="66" t="s">
+      <c r="AJ1" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="66" t="s">
+      <c r="AK1" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="66" t="s">
+      <c r="AL1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" s="47">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2" s="47">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>39</v>
       </c>
       <c r="C2" s="24">
         <v>0</v>
@@ -2627,55 +2625,48 @@
         <v>0</v>
       </c>
       <c r="R2" s="23">
-        <f t="shared" ref="R2:R25" si="12">IF(ISNUMBER($Q2),IF(MOD($Q2,16)/8&gt;=1,1,0),"X")</f>
+        <f t="shared" ref="R2:R29" si="12">IF(ISNUMBER($Q2),IF(MOD($Q2,16)/8&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
       <c r="S2" s="23">
-        <f t="shared" ref="S2:S25" si="13">IF(ISNUMBER($Q2),IF(MOD($Q2,8)/4&gt;=1,1,0),"X")</f>
+        <f t="shared" ref="S2:S29" si="13">IF(ISNUMBER($Q2),IF(MOD($Q2,8)/4&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
       <c r="T2" s="23">
-        <f t="shared" ref="T2:T25" si="14">IF(ISNUMBER($Q2),IF(MOD($Q2,4)/2&gt;=1,1,0),"X")</f>
+        <f t="shared" ref="T2:T29" si="14">IF(ISNUMBER($Q2),IF(MOD($Q2,4)/2&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
       <c r="U2" s="23">
-        <f t="shared" ref="U2:U25" si="15">IF(ISNUMBER($Q2),IF(MOD($Q2,2)&gt;=1,1,0),"X")</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="24">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="24">
-        <v>1</v>
-      </c>
+        <f t="shared" ref="U2:U29" si="15">IF(ISNUMBER($Q2),IF(MOD($Q2,2)&gt;=1,1,0),"X")</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="24"/>
       <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-    </row>
-    <row r="3" spans="1:38">
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="27">
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="28">
         <v>0</v>
@@ -2750,38 +2741,33 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="28">
-        <v>2</v>
-      </c>
-      <c r="AI3" s="28">
-        <v>1</v>
-      </c>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
       <c r="AJ3" s="28"/>
       <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-    </row>
-    <row r="4" spans="1:38">
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="47">
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="24">
         <v>0</v>
@@ -2856,38 +2842,33 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="24">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="24">
-        <v>1</v>
-      </c>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
       <c r="AJ4" s="24"/>
       <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-    </row>
-    <row r="5" spans="1:38">
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5" s="27">
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="28">
         <v>0</v>
@@ -2962,34 +2943,34 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
       <c r="AJ5" s="28"/>
       <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
-    </row>
-    <row r="6" spans="1:38">
+      <c r="AM5" s="68"/>
+    </row>
+    <row r="6" spans="1:39">
       <c r="A6" s="47">
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="24">
         <v>0</v>
@@ -3064,34 +3045,34 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
       <c r="AH6" s="24"/>
       <c r="AI6" s="24"/>
       <c r="AJ6" s="24"/>
       <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-    </row>
-    <row r="7" spans="1:38">
+      <c r="AM6" s="27"/>
+    </row>
+    <row r="7" spans="1:39">
       <c r="A7" s="27">
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="28">
         <v>0</v>
@@ -3166,34 +3147,34 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
       <c r="AJ7" s="28"/>
       <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-    </row>
-    <row r="8" spans="1:38">
+      <c r="AM7" s="23"/>
+    </row>
+    <row r="8" spans="1:39">
       <c r="A8" s="47">
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="24">
         <v>0</v>
@@ -3268,34 +3249,34 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="65"/>
       <c r="AH8" s="24"/>
       <c r="AI8" s="24"/>
       <c r="AJ8" s="24"/>
       <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
-    </row>
-    <row r="9" spans="1:38">
+      <c r="AM8" s="27"/>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="27">
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="28">
         <v>0</v>
@@ -3370,34 +3351,33 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
       <c r="AH9" s="28"/>
       <c r="AI9" s="28"/>
       <c r="AJ9" s="28"/>
       <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
-    </row>
-    <row r="10" spans="1:38">
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="47">
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="24">
         <v>0</v>
@@ -3472,34 +3452,33 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
       <c r="AH10" s="24"/>
       <c r="AI10" s="24"/>
       <c r="AJ10" s="24"/>
       <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-    </row>
-    <row r="11" spans="1:38">
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="27">
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="28">
         <v>0</v>
@@ -3574,34 +3553,33 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
       <c r="AH11" s="28"/>
       <c r="AI11" s="28"/>
       <c r="AJ11" s="28"/>
       <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-    </row>
-    <row r="12" spans="1:38">
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" s="47">
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="24">
         <v>0</v>
@@ -3676,29 +3654,28 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
       <c r="AH12" s="24"/>
       <c r="AI12" s="24"/>
       <c r="AJ12" s="24"/>
       <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-    </row>
-    <row r="13" spans="1:38">
+    </row>
+    <row r="13" spans="1:37">
       <c r="A13" s="27">
         <v>12</v>
       </c>
@@ -3760,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R13" s="27" t="str">
         <f t="shared" si="12"/>
@@ -3778,27 +3755,28 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="66">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="66"/>
       <c r="AH13" s="28"/>
       <c r="AI13" s="28"/>
       <c r="AJ13" s="28"/>
       <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
-    </row>
-    <row r="14" spans="1:38">
+    </row>
+    <row r="14" spans="1:37">
       <c r="A14" s="47">
         <v>13</v>
       </c>
@@ -3860,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R14" s="23" t="str">
         <f t="shared" si="12"/>
@@ -3878,38 +3856,37 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="65"/>
       <c r="AH14" s="24"/>
       <c r="AI14" s="24"/>
       <c r="AJ14" s="24"/>
       <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
-    </row>
-    <row r="15" spans="1:38">
+    </row>
+    <row r="15" spans="1:37">
       <c r="A15" s="27">
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="28">
         <v>2</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="28">
         <f t="shared" si="0"/>
@@ -3960,7 +3937,7 @@
         <v>X</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R15" s="27" t="str">
         <f t="shared" si="12"/>
@@ -3978,27 +3955,26 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="27"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="66"/>
       <c r="AH15" s="28"/>
       <c r="AI15" s="28"/>
       <c r="AJ15" s="28"/>
       <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-    </row>
-    <row r="16" spans="1:38">
+    </row>
+    <row r="16" spans="1:37">
       <c r="A16" s="47">
         <v>15</v>
       </c>
@@ -4009,7 +3985,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="24">
         <f t="shared" si="0"/>
@@ -4060,7 +4036,7 @@
         <v>X</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R16" s="23" t="str">
         <f t="shared" si="12"/>
@@ -4078,31 +4054,30 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="23">
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="65">
         <v>1</v>
       </c>
       <c r="AH16" s="24"/>
       <c r="AI16" s="24"/>
       <c r="AJ16" s="24"/>
       <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
-    </row>
-    <row r="17" spans="1:38">
+    </row>
+    <row r="17" spans="1:37">
       <c r="A17" s="27">
         <v>16</v>
       </c>
@@ -4113,7 +4088,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="28">
         <f t="shared" si="0"/>
@@ -4164,7 +4139,7 @@
         <v>X</v>
       </c>
       <c r="Q17" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R17" s="27" t="str">
         <f t="shared" si="12"/>
@@ -4182,27 +4157,26 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="66"/>
       <c r="AH17" s="28"/>
       <c r="AI17" s="28"/>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
-    </row>
-    <row r="18" spans="1:38">
+    </row>
+    <row r="18" spans="1:37">
       <c r="A18" s="47">
         <v>17</v>
       </c>
@@ -4213,7 +4187,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="24">
         <f t="shared" si="0"/>
@@ -4264,7 +4238,7 @@
         <v>X</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R18" s="23" t="str">
         <f t="shared" si="12"/>
@@ -4282,38 +4256,37 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
       <c r="AH18" s="24"/>
       <c r="AI18" s="24"/>
       <c r="AJ18" s="24"/>
       <c r="AK18" s="24"/>
-      <c r="AL18" s="24"/>
-    </row>
-    <row r="19" spans="1:38">
+    </row>
+    <row r="19" spans="1:37">
       <c r="A19" s="27">
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="28">
         <v>8</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="28">
         <f t="shared" si="0"/>
@@ -4382,40 +4355,41 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="66">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
       <c r="AH19" s="28"/>
       <c r="AI19" s="28"/>
       <c r="AJ19" s="28"/>
       <c r="AK19" s="28"/>
-      <c r="AL19" s="28"/>
-    </row>
-    <row r="20" spans="1:38">
+    </row>
+    <row r="20" spans="1:37">
       <c r="A20" s="47">
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="24">
         <v>12</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="24">
         <f t="shared" si="0"/>
@@ -4484,42 +4458,39 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
       <c r="AH20" s="24"/>
       <c r="AI20" s="24"/>
       <c r="AJ20" s="24"/>
       <c r="AK20" s="24"/>
-      <c r="AL20" s="24"/>
-    </row>
-    <row r="21" spans="1:38">
+    </row>
+    <row r="21" spans="1:37">
       <c r="A21" s="27">
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="28">
         <v>9</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21" s="28">
         <f t="shared" si="0"/>
@@ -4588,42 +4559,41 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="66">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
       <c r="AH21" s="28"/>
       <c r="AI21" s="28"/>
       <c r="AJ21" s="28"/>
       <c r="AK21" s="28"/>
-      <c r="AL21" s="28"/>
-    </row>
-    <row r="22" spans="1:38">
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22" s="47">
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="24">
         <v>10</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="24">
         <f t="shared" si="0"/>
@@ -4692,40 +4662,41 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
       <c r="AH22" s="24"/>
       <c r="AI22" s="24"/>
       <c r="AJ22" s="24"/>
       <c r="AK22" s="24"/>
-      <c r="AL22" s="24"/>
-    </row>
-    <row r="23" spans="1:38">
+    </row>
+    <row r="23" spans="1:37">
       <c r="A23" s="27">
         <v>22</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="28">
         <v>13</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" s="28">
         <f t="shared" si="0"/>
@@ -4794,42 +4765,39 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="66">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
       <c r="AH23" s="28"/>
       <c r="AI23" s="28"/>
       <c r="AJ23" s="28"/>
       <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-    </row>
-    <row r="24" spans="1:38">
+    </row>
+    <row r="24" spans="1:37">
       <c r="A24" s="47">
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="24">
         <v>35</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>51</v>
+      <c r="D24" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="E24" s="24">
         <f t="shared" si="0"/>
@@ -4898,42 +4866,43 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V24" s="23">
-        <v>1</v>
-      </c>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
+      <c r="V24" s="65">
+        <v>1</v>
+      </c>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
       <c r="AH24" s="24"/>
       <c r="AI24" s="24"/>
       <c r="AJ24" s="24"/>
       <c r="AK24" s="24"/>
-      <c r="AL24" s="24"/>
-    </row>
-    <row r="25" spans="1:38">
+    </row>
+    <row r="25" spans="1:37">
       <c r="A25" s="27">
         <v>24</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="28">
         <v>43</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" s="28">
         <f t="shared" si="0"/>
@@ -5002,104 +4971,223 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27">
-        <v>1</v>
-      </c>
-      <c r="X25" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66">
+        <v>1</v>
+      </c>
+      <c r="X25" s="66">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="66">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="66"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="66"/>
       <c r="AH25" s="28"/>
       <c r="AI25" s="28"/>
       <c r="AJ25" s="28"/>
       <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-    </row>
-    <row r="26" spans="1:38">
-      <c r="A26" s="48">
+    </row>
+    <row r="26" spans="1:39">
+      <c r="A26" s="27">
         <v>25</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
+      <c r="B26" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0</v>
+      </c>
+      <c r="D26" s="25">
+        <v>6</v>
+      </c>
+      <c r="E26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O26" s="25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P26" s="55">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>2</v>
+      </c>
+      <c r="R26" s="23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="23">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U26" s="23">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="V26" s="23"/>
       <c r="W26" s="23"/>
       <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
+      <c r="Y26" s="23">
+        <v>1</v>
+      </c>
       <c r="Z26" s="23"/>
       <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
+      <c r="AB26" s="23">
+        <v>1</v>
+      </c>
       <c r="AC26" s="23"/>
       <c r="AD26" s="23"/>
       <c r="AE26" s="23"/>
       <c r="AF26" s="23"/>
       <c r="AG26" s="23"/>
-      <c r="AH26" s="24"/>
+      <c r="AH26" s="24">
+        <v>1</v>
+      </c>
       <c r="AI26" s="24"/>
       <c r="AJ26" s="24"/>
       <c r="AK26" s="24"/>
       <c r="AL26" s="24"/>
-    </row>
-    <row r="27" spans="1:38">
-      <c r="A27" s="50">
+      <c r="AM26" s="24"/>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" s="27">
         <v>26</v>
       </c>
-      <c r="B27" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
+      <c r="B27" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="24">
+        <v>14</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J27" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L27" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="M27" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="N27" s="25" t="str">
+        <f t="shared" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="O27" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="P27" s="55" t="str">
+        <f t="shared" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="Q27" s="27">
+        <v>9</v>
+      </c>
+      <c r="R27" s="27">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S27" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="27">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
+      <c r="X27" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="27">
+        <v>1</v>
+      </c>
       <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
+      <c r="AA27" s="66"/>
       <c r="AB27" s="27"/>
       <c r="AC27" s="27"/>
       <c r="AD27" s="27"/>
@@ -5107,41 +5195,102 @@
       <c r="AF27" s="27"/>
       <c r="AG27" s="27"/>
       <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
+      <c r="AI27" s="28">
+        <v>1</v>
+      </c>
       <c r="AJ27" s="28"/>
       <c r="AK27" s="28"/>
-      <c r="AL27" s="28"/>
-    </row>
-    <row r="28" spans="1:38">
-      <c r="A28" s="48">
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" s="47">
         <v>27</v>
       </c>
-      <c r="B28" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="23"/>
+      <c r="B28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="24">
+        <v>41</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="29" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L28" s="29" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="M28" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="N28" s="29" t="str">
+        <f t="shared" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="O28" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="P28" s="54" t="str">
+        <f t="shared" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="Q28" s="27">
+        <v>5</v>
+      </c>
+      <c r="R28" s="23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="23">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T28" s="23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="23">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="V28" s="23">
+        <v>1</v>
+      </c>
       <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
+      <c r="X28" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="23">
+        <v>1</v>
+      </c>
       <c r="Z28" s="23"/>
       <c r="AA28" s="23"/>
       <c r="AB28" s="23"/>
@@ -5152,36 +5301,91 @@
       <c r="AG28" s="23"/>
       <c r="AH28" s="24"/>
       <c r="AI28" s="24"/>
-      <c r="AJ28" s="24"/>
+      <c r="AJ28" s="24">
+        <v>1</v>
+      </c>
       <c r="AK28" s="24"/>
-      <c r="AL28" s="24"/>
-    </row>
-    <row r="29" spans="1:38">
-      <c r="A29" s="50">
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" s="27">
         <v>28</v>
       </c>
-      <c r="B29" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
+      <c r="B29" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="24">
+        <v>6</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="29" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L29" s="29" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="M29" s="29" t="str">
+        <f t="shared" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="N29" s="29" t="str">
+        <f t="shared" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="O29" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="P29" s="54" t="str">
+        <f t="shared" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="Q29" s="27">
+        <v>11</v>
+      </c>
+      <c r="R29" s="27">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S29" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="27">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U29" s="27">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="V29" s="27"/>
       <c r="W29" s="27"/>
       <c r="X29" s="27"/>
@@ -5197,13 +5401,14 @@
       <c r="AH29" s="28"/>
       <c r="AI29" s="28"/>
       <c r="AJ29" s="28"/>
-      <c r="AK29" s="28"/>
-      <c r="AL29" s="28"/>
-    </row>
-    <row r="30" spans="1:38">
+      <c r="AK29" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
-      <c r="C30" s="23"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -5217,57 +5422,56 @@
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
       <c r="P30" s="56"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="61"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="23"/>
-      <c r="AD30" s="23"/>
-      <c r="AE30" s="23"/>
-      <c r="AF30" s="23"/>
-      <c r="AG30" s="23"/>
-      <c r="AH30" s="24"/>
-      <c r="AI30" s="24"/>
-      <c r="AJ30" s="24"/>
-      <c r="AK30" s="24"/>
-      <c r="AL30" s="24"/>
-    </row>
-    <row r="31" spans="1:38">
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="28"/>
+    </row>
+    <row r="31" spans="1:37">
       <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
       <c r="AB31" s="27"/>
       <c r="AC31" s="27"/>
       <c r="AD31" s="27"/>
@@ -5278,9 +5482,8 @@
       <c r="AI31" s="28"/>
       <c r="AJ31" s="28"/>
       <c r="AK31" s="28"/>
-      <c r="AL31" s="28"/>
-    </row>
-    <row r="32" spans="1:38">
+    </row>
+    <row r="32" spans="1:37">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
       <c r="C32" s="23"/>
@@ -5318,9 +5521,8 @@
       <c r="AI32" s="24"/>
       <c r="AJ32" s="24"/>
       <c r="AK32" s="24"/>
-      <c r="AL32" s="24"/>
-    </row>
-    <row r="33" spans="1:38">
+    </row>
+    <row r="33" spans="1:37">
       <c r="A33" s="50"/>
       <c r="B33" s="50"/>
       <c r="C33" s="27"/>
@@ -5358,9 +5560,8 @@
       <c r="AI33" s="28"/>
       <c r="AJ33" s="28"/>
       <c r="AK33" s="28"/>
-      <c r="AL33" s="28"/>
-    </row>
-    <row r="34" spans="1:38">
+    </row>
+    <row r="34" spans="1:37">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
       <c r="C34" s="23"/>
@@ -5398,9 +5599,8 @@
       <c r="AI34" s="24"/>
       <c r="AJ34" s="24"/>
       <c r="AK34" s="24"/>
-      <c r="AL34" s="24"/>
-    </row>
-    <row r="35" spans="1:38">
+    </row>
+    <row r="35" spans="1:37">
       <c r="A35" s="50"/>
       <c r="B35" s="50"/>
       <c r="C35" s="27"/>
@@ -5438,9 +5638,8 @@
       <c r="AI35" s="28"/>
       <c r="AJ35" s="28"/>
       <c r="AK35" s="28"/>
-      <c r="AL35" s="28"/>
-    </row>
-    <row r="36" spans="1:38">
+    </row>
+    <row r="36" spans="1:37">
       <c r="A36" s="48"/>
       <c r="B36" s="49"/>
       <c r="C36" s="23"/>
@@ -5478,9 +5677,8 @@
       <c r="AI36" s="24"/>
       <c r="AJ36" s="24"/>
       <c r="AK36" s="24"/>
-      <c r="AL36" s="24"/>
-    </row>
-    <row r="37" spans="1:38">
+    </row>
+    <row r="37" spans="1:37">
       <c r="A37" s="50"/>
       <c r="B37" s="50"/>
       <c r="C37" s="27"/>
@@ -5518,9 +5716,8 @@
       <c r="AI37" s="28"/>
       <c r="AJ37" s="28"/>
       <c r="AK37" s="28"/>
-      <c r="AL37" s="28"/>
-    </row>
-    <row r="38" spans="1:38">
+    </row>
+    <row r="38" spans="1:37">
       <c r="A38" s="48"/>
       <c r="B38" s="49"/>
       <c r="C38" s="23"/>
@@ -5558,9 +5755,8 @@
       <c r="AI38" s="24"/>
       <c r="AJ38" s="24"/>
       <c r="AK38" s="24"/>
-      <c r="AL38" s="24"/>
-    </row>
-    <row r="39" spans="1:38">
+    </row>
+    <row r="39" spans="1:37">
       <c r="A39" s="50"/>
       <c r="B39" s="50"/>
       <c r="C39" s="27"/>
@@ -5598,9 +5794,8 @@
       <c r="AI39" s="28"/>
       <c r="AJ39" s="28"/>
       <c r="AK39" s="28"/>
-      <c r="AL39" s="28"/>
-    </row>
-    <row r="40" spans="1:38">
+    </row>
+    <row r="40" spans="1:37">
       <c r="A40" s="48"/>
       <c r="B40" s="49"/>
       <c r="C40" s="23"/>
@@ -5638,9 +5833,8 @@
       <c r="AI40" s="24"/>
       <c r="AJ40" s="24"/>
       <c r="AK40" s="24"/>
-      <c r="AL40" s="24"/>
-    </row>
-    <row r="41" spans="1:38">
+    </row>
+    <row r="41" spans="1:37">
       <c r="A41" s="50"/>
       <c r="B41" s="50"/>
       <c r="C41" s="27"/>
@@ -5678,9 +5872,8 @@
       <c r="AI41" s="28"/>
       <c r="AJ41" s="28"/>
       <c r="AK41" s="28"/>
-      <c r="AL41" s="28"/>
-    </row>
-    <row r="42" spans="1:38">
+    </row>
+    <row r="42" spans="1:37">
       <c r="A42" s="48"/>
       <c r="B42" s="49"/>
       <c r="C42" s="23"/>
@@ -5718,9 +5911,8 @@
       <c r="AI42" s="24"/>
       <c r="AJ42" s="24"/>
       <c r="AK42" s="24"/>
-      <c r="AL42" s="24"/>
-    </row>
-    <row r="43" spans="1:38">
+    </row>
+    <row r="43" spans="1:37">
       <c r="A43" s="50"/>
       <c r="B43" s="50"/>
       <c r="C43" s="27"/>
@@ -5758,9 +5950,8 @@
       <c r="AI43" s="28"/>
       <c r="AJ43" s="28"/>
       <c r="AK43" s="28"/>
-      <c r="AL43" s="28"/>
-    </row>
-    <row r="44" spans="1:38">
+    </row>
+    <row r="44" spans="1:37">
       <c r="A44" s="48"/>
       <c r="B44" s="49"/>
       <c r="C44" s="23"/>
@@ -5798,9 +5989,8 @@
       <c r="AI44" s="24"/>
       <c r="AJ44" s="24"/>
       <c r="AK44" s="24"/>
-      <c r="AL44" s="24"/>
-    </row>
-    <row r="45" spans="1:38">
+    </row>
+    <row r="45" spans="1:37">
       <c r="A45" s="50"/>
       <c r="B45" s="50"/>
       <c r="C45" s="27"/>
@@ -5838,9 +6028,8 @@
       <c r="AI45" s="28"/>
       <c r="AJ45" s="28"/>
       <c r="AK45" s="28"/>
-      <c r="AL45" s="28"/>
-    </row>
-    <row r="46" spans="1:38">
+    </row>
+    <row r="46" spans="1:37">
       <c r="A46" s="48"/>
       <c r="B46" s="49"/>
       <c r="C46" s="23"/>
@@ -5878,9 +6067,8 @@
       <c r="AI46" s="24"/>
       <c r="AJ46" s="24"/>
       <c r="AK46" s="24"/>
-      <c r="AL46" s="24"/>
-    </row>
-    <row r="47" spans="1:38">
+    </row>
+    <row r="47" spans="1:37">
       <c r="A47" s="50"/>
       <c r="B47" s="50"/>
       <c r="C47" s="27"/>
@@ -5918,9 +6106,8 @@
       <c r="AI47" s="28"/>
       <c r="AJ47" s="28"/>
       <c r="AK47" s="28"/>
-      <c r="AL47" s="28"/>
-    </row>
-    <row r="48" spans="1:38">
+    </row>
+    <row r="48" spans="1:37">
       <c r="A48" s="48"/>
       <c r="B48" s="49"/>
       <c r="C48" s="23"/>
@@ -5958,9 +6145,8 @@
       <c r="AI48" s="24"/>
       <c r="AJ48" s="24"/>
       <c r="AK48" s="24"/>
-      <c r="AL48" s="24"/>
-    </row>
-    <row r="49" spans="1:38">
+    </row>
+    <row r="49" spans="1:37">
       <c r="A49" s="50"/>
       <c r="B49" s="50"/>
       <c r="C49" s="27"/>
@@ -5998,9 +6184,8 @@
       <c r="AI49" s="28"/>
       <c r="AJ49" s="28"/>
       <c r="AK49" s="28"/>
-      <c r="AL49" s="28"/>
-    </row>
-    <row r="50" spans="1:38">
+    </row>
+    <row r="50" spans="1:37">
       <c r="A50" s="48"/>
       <c r="B50" s="49"/>
       <c r="C50" s="23"/>
@@ -6038,9 +6223,8 @@
       <c r="AI50" s="24"/>
       <c r="AJ50" s="24"/>
       <c r="AK50" s="24"/>
-      <c r="AL50" s="24"/>
-    </row>
-    <row r="51" spans="1:38">
+    </row>
+    <row r="51" spans="1:37">
       <c r="A51" s="50"/>
       <c r="B51" s="50"/>
       <c r="C51" s="27"/>
@@ -6078,9 +6262,8 @@
       <c r="AI51" s="28"/>
       <c r="AJ51" s="28"/>
       <c r="AK51" s="28"/>
-      <c r="AL51" s="28"/>
-    </row>
-    <row r="52" spans="1:38">
+    </row>
+    <row r="52" spans="1:37">
       <c r="A52" s="48"/>
       <c r="B52" s="49"/>
       <c r="C52" s="23"/>
@@ -6118,9 +6301,8 @@
       <c r="AI52" s="24"/>
       <c r="AJ52" s="24"/>
       <c r="AK52" s="24"/>
-      <c r="AL52" s="24"/>
-    </row>
-    <row r="53" spans="1:38">
+    </row>
+    <row r="53" spans="1:37">
       <c r="A53" s="50"/>
       <c r="B53" s="50"/>
       <c r="C53" s="27"/>
@@ -6158,9 +6340,8 @@
       <c r="AI53" s="28"/>
       <c r="AJ53" s="28"/>
       <c r="AK53" s="28"/>
-      <c r="AL53" s="28"/>
-    </row>
-    <row r="54" spans="1:38">
+    </row>
+    <row r="54" spans="1:37">
       <c r="A54" s="48"/>
       <c r="B54" s="49"/>
       <c r="C54" s="23"/>
@@ -6198,9 +6379,8 @@
       <c r="AI54" s="24"/>
       <c r="AJ54" s="24"/>
       <c r="AK54" s="24"/>
-      <c r="AL54" s="24"/>
-    </row>
-    <row r="55" spans="1:38">
+    </row>
+    <row r="55" spans="1:37">
       <c r="A55" s="50"/>
       <c r="B55" s="50"/>
       <c r="C55" s="27"/>
@@ -6238,9 +6418,8 @@
       <c r="AI55" s="28"/>
       <c r="AJ55" s="28"/>
       <c r="AK55" s="28"/>
-      <c r="AL55" s="28"/>
-    </row>
-    <row r="56" spans="1:38">
+    </row>
+    <row r="56" spans="1:37">
       <c r="A56" s="48"/>
       <c r="B56" s="49"/>
       <c r="C56" s="23"/>
@@ -6278,9 +6457,8 @@
       <c r="AI56" s="24"/>
       <c r="AJ56" s="24"/>
       <c r="AK56" s="24"/>
-      <c r="AL56" s="24"/>
-    </row>
-    <row r="57" spans="1:38">
+    </row>
+    <row r="57" spans="1:37">
       <c r="A57" s="50"/>
       <c r="B57" s="50"/>
       <c r="C57" s="27"/>
@@ -6318,9 +6496,8 @@
       <c r="AI57" s="28"/>
       <c r="AJ57" s="28"/>
       <c r="AK57" s="28"/>
-      <c r="AL57" s="28"/>
-    </row>
-    <row r="58" spans="1:38">
+    </row>
+    <row r="58" spans="1:37">
       <c r="A58" s="48"/>
       <c r="B58" s="49"/>
       <c r="C58" s="23"/>
@@ -6358,9 +6535,8 @@
       <c r="AI58" s="24"/>
       <c r="AJ58" s="24"/>
       <c r="AK58" s="24"/>
-      <c r="AL58" s="24"/>
-    </row>
-    <row r="59" spans="1:38">
+    </row>
+    <row r="59" spans="1:37">
       <c r="A59" s="50"/>
       <c r="B59" s="50"/>
       <c r="C59" s="27"/>
@@ -6398,9 +6574,8 @@
       <c r="AI59" s="28"/>
       <c r="AJ59" s="28"/>
       <c r="AK59" s="28"/>
-      <c r="AL59" s="28"/>
-    </row>
-    <row r="60" spans="1:38">
+    </row>
+    <row r="60" spans="1:37">
       <c r="A60" s="48"/>
       <c r="B60" s="49"/>
       <c r="C60" s="23"/>
@@ -6438,9 +6613,8 @@
       <c r="AI60" s="24"/>
       <c r="AJ60" s="24"/>
       <c r="AK60" s="24"/>
-      <c r="AL60" s="24"/>
-    </row>
-    <row r="61" spans="1:38">
+    </row>
+    <row r="61" spans="1:37">
       <c r="A61" s="50"/>
       <c r="B61" s="50"/>
       <c r="C61" s="27"/>
@@ -6478,76 +6652,166 @@
       <c r="AI61" s="28"/>
       <c r="AJ61" s="28"/>
       <c r="AK61" s="28"/>
-      <c r="AL61" s="28"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A$1:D$1048576" name="区域1"/>
+    <protectedRange sqref="A1:D25 AM5:AM8 A27:D30 A31 A32:D1048576 B31:D31" name="区域1"/>
+    <protectedRange sqref="A26:D26" name="区域1_1"/>
   </protectedRanges>
-  <conditionalFormatting sqref="AJ1:AK1">
-    <cfRule type="cellIs" priority="2" operator="notEqual">
+  <conditionalFormatting sqref="AG1">
+    <cfRule type="cellIs" priority="24" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL1">
-    <cfRule type="cellIs" priority="1" operator="notEqual">
+  <conditionalFormatting sqref="AH1:AI1">
+    <cfRule type="cellIs" priority="21" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:AG1 V62:AG1048576">
-    <cfRule type="cellIs" priority="14" operator="notEqual">
+  <conditionalFormatting sqref="AJ1">
+    <cfRule type="cellIs" priority="16" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH1:AI1 AH62:AI1048576">
-    <cfRule type="cellIs" priority="8" operator="notEqual">
+  <conditionalFormatting sqref="AK1">
+    <cfRule type="cellIs" priority="15" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:AG25">
+  <conditionalFormatting sqref="Q26">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26:U26">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V26:AG26">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH26:AI26">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ26:AK26">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL26:AM26">
     <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AI25">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AL25">
+  <conditionalFormatting sqref="AA27">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V26:AG61">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+  <conditionalFormatting sqref="AG30">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH26:AI61">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+  <conditionalFormatting sqref="Q31:U31">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ26:AL61">
+  <conditionalFormatting sqref="V31:AA31">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:Q29">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:AF1 V62:AG1048576">
+    <cfRule type="cellIs" priority="45" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:U25 R27:U29 Q30:AF30">
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V13:AG24 V25:AG25 V2:AG12">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ62:AL1048576">
-    <cfRule type="cellIs" priority="5" operator="notEqual">
+  <conditionalFormatting sqref="AH2:AI25 AH30:AI30">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ2:AK25 AJ30:AK30">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X27:Z27 V27">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB27:AG27 V28:AG29">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH27:AI29">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ27:AK29">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB31:AG31 V32:AG61">
+    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31:AI61">
+    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ31:AK61">
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH62:AI1048576">
+    <cfRule type="cellIs" priority="39" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ62:AK1048576">
+    <cfRule type="cellIs" priority="36" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位&#10;" sqref="R2:U61"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Func字段二进制位" prompt="Func字段6个二进制位" sqref="K$1:P$1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALU运算选择信号" prompt="请输入当前指令的AluOp十进制编码，后续隐藏列会自动生成对应的二进制位，如不需要使用ALU可以输入&quot;X&quot;" sqref="Q$1:Q$1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入MIPS指令字的OpCode的十进制数，后续隐藏列会自动生成OpCode字段6位的二进制位" sqref="C$1:C$1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode" prompt="OpCode  6个二进制位" sqref="E$1:J$1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FUNC(十进制)" prompt="输入MIPS指令字的Func字段的10进制数，无Func字段填&quot;X&quot;，后续隐藏列会自动生成Func字段6位的二进制位" sqref="D$1:D$1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填&#10;&#10;输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="V$1:AL$1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B$1:B$1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入MIPS指令字的OpCode的十进制数，后续隐藏列会自动生成OpCode字段6位的二进制位" sqref="C26 C31 C1:C25 C27:C30 C32:C1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位&#10;" sqref="R21 S21 T21 U21 R22 S22 T22 U22 R23 S23 T23 U23 R24 S24 T24 U24 R25 S25 T25 U25 R26 S26 T26 U26 R27 S27 T27 U27 R28 S28 T28 U28 R29 S29 T29 U29 R30 S30 T30 U30 R31 S31 T31 U31 R2:U20 R32:U61"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALU运算选择信号" prompt="请输入当前指令的AluOp十进制编码，后续隐藏列会自动生成对应的二进制位，如不需要使用ALU可以输入&quot;X&quot;" sqref="Q21 Q22 Q23 Q24 Q25 Q26 Q27 Q28 Q29 Q30 Q31 Q1:Q20 Q32:Q1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Func字段二进制位" prompt="Func字段6个二进制位" sqref="K21 L21 M21 N21 O21 P21 K22 L22 M22 N22 O22 P22 K23 L23 M23 N23 O23 P23 K24 L24 M24 N24 O24 P24 K25 L25 M25 N25 O25 P25 K26 L26 M26 N26 O26 P26 K27 L27 M27 N27 O27 P27 K28 L28 M28 N28 O28 P28 K29 L29 M29 N29 O29 P29 K30:P30 K31 L31 M31 N31 O31 P31 K1:P20 K32:P1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FUNC(十进制)" prompt="输入MIPS指令字的Func字段的10进制数，无Func字段填&quot;X&quot;，后续隐藏列会自动生成Func字段6位的二进制位" sqref="D26 D31 D1:D25 D27:D30 D32:D1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode" prompt="OpCode  6个二进制位" sqref="E21 F21 G21 H21 I21 J21 E22 F22 G22 H22 I22 J22 E23 F23 G23 H23 I23 J23 E24 F24 G24 H24 I24 J24 E25 F25 G25 H25 I25 J25 E26 F26 G26 H26 I26 J26 E27 F27 G27 H27 I27 J27 E28 F28 G28 H28 I28 J28 E29 F29 G29 H29 I29 J29 E30:J30 E31 F31 G31 H31 I31 J31 E1:J20 E32:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B26 B31 B1:B25 B27:B30 B32:B1048576 AM5:AM8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填&#10;&#10;输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="V1:AF1 AG1:AK1 AH21 AI21 AJ21 AK21 AH22 AI22 AJ22 AK22 AH23 AI23 AJ23 AK23 AH24 AI24 AJ24 AK24 AH25 AI25 AJ25 AK25 V26 W26 X26 Y26 Z26 AA26 AB26 AC26 AD26 AE26 AF26 AG26 AH26 AI26 AJ26 AK26 AL26:AM26 V27 X27 Y27 Z27 AA27 AB27 AC27 AD27 AE27 AF27 AG27 AH27 AI27 AJ27 AK27 V28 W28 X28 Y28 Z28 AA28 AB28 AC28 AD28 AE28 AF28 AG28 AH28 AI28 AJ28 AK28 V29 W29 X29 Y29 Z29 AA29 AB29 AC29 AD29 AE29 AF29 AG29 AH29 AI29 AJ29 AK29 V30 W30 X30 Y30 Z30 AA30 AB30 AC30 AD30 AE30 AF30 AG30 AH30 AI30 AJ30 AK30 V31:AA31 AB31:AK31 AH2:AK20 V2:AG25 V32:AK1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="输出信号" sqref="R1:U1"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6558,13 +6822,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:AJ81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -6576,12 +6840,27 @@
     <col min="5" max="13" width="4.62857142857143" style="18" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="4.24761904761905" style="18" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="4.62857142857143" style="18" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="47.752380952381" style="18" customWidth="1"/>
-    <col min="17" max="18" width="3.37142857142857" style="18" customWidth="1"/>
-    <col min="19" max="19" width="3.12380952380952" style="18" customWidth="1"/>
-    <col min="20" max="20" width="3.37142857142857" style="18" customWidth="1"/>
-    <col min="21" max="23" width="9" customWidth="1"/>
-    <col min="33" max="36" width="9" style="19"/>
+    <col min="16" max="16" width="68.0571428571429" style="18" customWidth="1"/>
+    <col min="17" max="17" width="10.5714285714286" style="18" customWidth="1"/>
+    <col min="18" max="18" width="13.6095238095238" style="18" customWidth="1"/>
+    <col min="19" max="19" width="15.6285714285714" style="18" customWidth="1"/>
+    <col min="20" max="20" width="23.6857142857143" style="18" customWidth="1"/>
+    <col min="21" max="21" width="17.4666666666667" customWidth="1"/>
+    <col min="22" max="22" width="16.2952380952381" customWidth="1"/>
+    <col min="23" max="23" width="20.4952380952381" customWidth="1"/>
+    <col min="24" max="24" width="16.1238095238095" customWidth="1"/>
+    <col min="25" max="25" width="16.8" customWidth="1"/>
+    <col min="26" max="26" width="17.6380952380952" customWidth="1"/>
+    <col min="27" max="27" width="16.8" customWidth="1"/>
+    <col min="28" max="28" width="13.6" customWidth="1"/>
+    <col min="29" max="29" width="13.7714285714286" customWidth="1"/>
+    <col min="30" max="30" width="13.2666666666667" customWidth="1"/>
+    <col min="31" max="31" width="15.1142857142857" customWidth="1"/>
+    <col min="32" max="32" width="15.9619047619048" customWidth="1"/>
+    <col min="33" max="33" width="12.9333333333333" style="19" customWidth="1"/>
+    <col min="34" max="34" width="15.2857142857143" style="19" customWidth="1"/>
+    <col min="35" max="35" width="12.7619047619048" style="19" customWidth="1"/>
+    <col min="36" max="36" width="13.1047619047619" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="1" ht="24.75" spans="1:36">
@@ -6643,7 +6922,7 @@
         <v>F0</v>
       </c>
       <c r="P1" s="33" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="36" t="str">
         <f>真值表!R1</f>
@@ -6711,22 +6990,22 @@
       </c>
       <c r="AG1" s="40" t="str">
         <f>真值表!AH1</f>
-        <v>ALU_Shamt</v>
+        <v>SRLV</v>
       </c>
       <c r="AH1" s="40" t="str">
         <f>真值表!AI1</f>
-        <v>Shamt1</v>
+        <v>XORI</v>
       </c>
       <c r="AI1" s="40" t="str">
         <f>真值表!AJ1</f>
-        <v>Shamt0</v>
+        <v>SH</v>
       </c>
       <c r="AJ1" s="40" t="str">
-        <f>真值表!AL1</f>
-        <v>bgez</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:36">
+        <f>真值表!AK1</f>
+        <v>BLEZ</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" hidden="1" spans="1:36">
       <c r="A2" s="23" t="str">
         <f>真值表!B2</f>
         <v>SLL</v>
@@ -6857,22 +7136,22 @@
       </c>
       <c r="AG2" s="41">
         <f>真值表!AH2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="41">
         <f>真值表!AI2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="41">
         <f>真值表!AJ2</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="41">
-        <f>真值表!AL2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:36">
+        <f>真值表!AK2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" hidden="1" spans="1:36">
       <c r="A3" s="27" t="str">
         <f>真值表!B3</f>
         <v>SRA</v>
@@ -7003,22 +7282,22 @@
       </c>
       <c r="AG3" s="42">
         <f>真值表!AH3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="42">
         <f>真值表!AI3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="42">
         <f>真值表!AJ3</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="42">
-        <f>真值表!AL3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:36">
+        <f>真值表!AK3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" hidden="1" spans="1:36">
       <c r="A4" s="23" t="str">
         <f>真值表!B4</f>
         <v>SRL</v>
@@ -7149,22 +7428,22 @@
       </c>
       <c r="AG4" s="41">
         <f>真值表!AH4</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="41">
         <f>真值表!AI4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="41">
         <f>真值表!AJ4</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="41">
-        <f>真值表!AL4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:36">
+        <f>真值表!AK4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" hidden="1" spans="1:36">
       <c r="A5" s="27" t="str">
         <f>真值表!B5</f>
         <v>ADD</v>
@@ -7306,11 +7585,11 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="42">
-        <f>真值表!AL5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:36">
+        <f>真值表!AK5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" hidden="1" spans="1:36">
       <c r="A6" s="23" t="str">
         <f>真值表!B6</f>
         <v>ADDU</v>
@@ -7452,11 +7731,11 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="41">
-        <f>真值表!AL6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:36">
+        <f>真值表!AK6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" hidden="1" spans="1:36">
       <c r="A7" s="27" t="str">
         <f>真值表!B7</f>
         <v>SUB</v>
@@ -7598,11 +7877,11 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="42">
-        <f>真值表!AL7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:36">
+        <f>真值表!AK7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" hidden="1" spans="1:36">
       <c r="A8" s="23" t="str">
         <f>真值表!B8</f>
         <v>AND</v>
@@ -7744,11 +8023,11 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="41">
-        <f>真值表!AL8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:36">
+        <f>真值表!AK8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" hidden="1" spans="1:36">
       <c r="A9" s="27" t="str">
         <f>真值表!B9</f>
         <v>OR</v>
@@ -7890,11 +8169,11 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="42">
-        <f>真值表!AL9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:36">
+        <f>真值表!AK9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" hidden="1" spans="1:36">
       <c r="A10" s="23" t="str">
         <f>真值表!B10</f>
         <v>NOR</v>
@@ -8036,11 +8315,11 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="41">
-        <f>真值表!AL10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:36">
+        <f>真值表!AK10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" hidden="1" spans="1:36">
       <c r="A11" s="27" t="str">
         <f>真值表!B11</f>
         <v>SLT</v>
@@ -8182,11 +8461,11 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="42">
-        <f>真值表!AL11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="1:36">
+        <f>真值表!AK11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" hidden="1" spans="1:36">
       <c r="A12" s="23" t="str">
         <f>真值表!B12</f>
         <v>SLTU</v>
@@ -8328,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="41">
-        <f>真值表!AL12</f>
+        <f>真值表!AK12</f>
         <v>0</v>
       </c>
     </row>
@@ -8455,7 +8734,7 @@
       </c>
       <c r="AE13" s="38">
         <f>真值表!AF13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="38">
         <f>真值表!AG13</f>
@@ -8474,11 +8753,11 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="42">
-        <f>真值表!AL13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" spans="1:36">
+        <f>真值表!AK13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" hidden="1" spans="1:36">
       <c r="A14" s="23" t="str">
         <f>真值表!B14</f>
         <v>SYSCALL</v>
@@ -8620,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="41">
-        <f>真值表!AL14</f>
+        <f>真值表!AK14</f>
         <v>0</v>
       </c>
     </row>
@@ -8766,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="42">
-        <f>真值表!AL15</f>
+        <f>真值表!AK15</f>
         <v>0</v>
       </c>
     </row>
@@ -8912,11 +9191,11 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="41">
-        <f>真值表!AL16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" spans="1:36">
+        <f>真值表!AK16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" hidden="1" spans="1:36">
       <c r="A17" s="27" t="str">
         <f>真值表!B17</f>
         <v>BEQ</v>
@@ -9058,11 +9337,11 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="42">
-        <f>真值表!AL17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" spans="1:36">
+        <f>真值表!AK17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" hidden="1" spans="1:36">
       <c r="A18" s="23" t="str">
         <f>真值表!B18</f>
         <v>BNE</v>
@@ -9204,11 +9483,11 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="41">
-        <f>真值表!AL18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="1:36">
+        <f>真值表!AK18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" hidden="1" spans="1:36">
       <c r="A19" s="27" t="str">
         <f>真值表!B19</f>
         <v>ADDI</v>
@@ -9311,7 +9590,7 @@
       </c>
       <c r="Z19" s="38">
         <f>真值表!AA19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="38">
         <f>真值表!AB19</f>
@@ -9350,11 +9629,11 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="42">
-        <f>真值表!AL19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="1:36">
+        <f>真值表!AK19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" hidden="1" spans="1:36">
       <c r="A20" s="23" t="str">
         <f>真值表!B20</f>
         <v>ANDI</v>
@@ -9457,7 +9736,7 @@
       </c>
       <c r="Z20" s="37">
         <f>真值表!AA20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="37">
         <f>真值表!AB20</f>
@@ -9496,11 +9775,11 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="41">
-        <f>真值表!AL20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="1:36">
+        <f>真值表!AK20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" hidden="1" spans="1:36">
       <c r="A21" s="27" t="str">
         <f>真值表!B21</f>
         <v>ADDIU</v>
@@ -9642,11 +9921,11 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="42">
-        <f>真值表!AL21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" spans="1:36">
+        <f>真值表!AK21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" hidden="1" spans="1:36">
       <c r="A22" s="23" t="str">
         <f>真值表!B22</f>
         <v>SLTI</v>
@@ -9749,7 +10028,7 @@
       </c>
       <c r="Z22" s="37">
         <f>真值表!AA22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="37">
         <f>真值表!AB22</f>
@@ -9788,11 +10067,11 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="41">
-        <f>真值表!AL22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" spans="1:36">
+        <f>真值表!AK22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" hidden="1" spans="1:36">
       <c r="A23" s="27" t="str">
         <f>真值表!B23</f>
         <v>ORI</v>
@@ -9895,7 +10174,7 @@
       </c>
       <c r="Z23" s="38">
         <f>真值表!AA23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="38">
         <f>真值表!AB23</f>
@@ -9934,11 +10213,11 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="42">
-        <f>真值表!AL23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" spans="1:36">
+        <f>真值表!AK23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" hidden="1" spans="1:36">
       <c r="A24" s="23" t="str">
         <f>真值表!B24</f>
         <v>LW</v>
@@ -10041,7 +10320,7 @@
       </c>
       <c r="Z24" s="37">
         <f>真值表!AA24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="37">
         <f>真值表!AB24</f>
@@ -10080,11 +10359,11 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="41">
-        <f>真值表!AL24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" spans="1:36">
+        <f>真值表!AK24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" hidden="1" spans="1:36">
       <c r="A25" s="27" t="str">
         <f>真值表!B25</f>
         <v>SW</v>
@@ -10187,7 +10466,7 @@
       </c>
       <c r="Z25" s="38">
         <f>真值表!AA25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="38">
         <f>真值表!AB25</f>
@@ -10226,11 +10505,11 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="42">
-        <f>真值表!AL25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" spans="1:36">
+        <f>真值表!AK25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" hidden="1" spans="1:36">
       <c r="A26" s="23" t="str">
         <f>真值表!B26</f>
         <v>SRLV</v>
@@ -10239,9 +10518,9 @@
         <f>真值表!C26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="25" t="str">
         <f>真值表!D27</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="D26" s="26" t="str">
         <f>IF(真值表!E26=1," "&amp;真值表!E$1&amp;" ",IF(真值表!E26=0,"~"&amp;真值表!E$1&amp;" ",""))</f>
@@ -10281,11 +10560,11 @@
       </c>
       <c r="M26" s="31" t="str">
         <f>IF(真值表!N26=1," "&amp;真值表!N$1&amp;" ",IF(真值表!N26=0,"~"&amp;真值表!N$1&amp;" ",""))</f>
-        <v>~F2 </v>
+        <v> F2 </v>
       </c>
       <c r="N26" s="31" t="str">
         <f>IF(真值表!O26=1," "&amp;真值表!O$1&amp;" ",IF(真值表!O26=0,"~"&amp;真值表!O$1&amp;" ",""))</f>
-        <v>~F1 </v>
+        <v> F1 </v>
       </c>
       <c r="O26" s="31" t="str">
         <f>IF(真值表!P26=1," "&amp;真值表!P$1&amp;" ",IF(真值表!P26=0,"~"&amp;真值表!P$1&amp;" ",""))</f>
@@ -10293,7 +10572,7 @@
       </c>
       <c r="P26" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>~OP5 ~OP4 ~OP3 ~OP2 ~OP1 ~OP0 ~F5 ~F4 ~F3 ~F2 ~F1 ~F0 +</v>
+        <v>~OP5 ~OP4 ~OP3 ~OP2 ~OP1 ~OP0 ~F5 ~F4 ~F3  F2  F1 ~F0 +</v>
       </c>
       <c r="Q26" s="37">
         <f>真值表!R26</f>
@@ -10305,7 +10584,7 @@
       </c>
       <c r="S26" s="37">
         <f>真值表!T26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="37">
         <f>真值表!U26</f>
@@ -10325,7 +10604,7 @@
       </c>
       <c r="X26" s="37">
         <f>真值表!Y26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="37">
         <f>真值表!Z26</f>
@@ -10337,7 +10616,7 @@
       </c>
       <c r="AA26" s="37">
         <f>真值表!AB26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="37">
         <f>真值表!AC26</f>
@@ -10361,7 +10640,7 @@
       </c>
       <c r="AG26" s="41">
         <f>真值表!AH26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26" s="41">
         <f>真值表!AI26</f>
@@ -10372,22 +10651,22 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="41">
-        <f>真值表!AL26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" spans="1:36">
+        <f>真值表!AK26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" hidden="1" spans="1:36">
       <c r="A27" s="27" t="str">
         <f>真值表!B27</f>
         <v>XORI</v>
       </c>
       <c r="B27" s="28">
         <f>真值表!C27</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="29">
+        <v>14</v>
+      </c>
+      <c r="C27" s="29" t="str">
         <f>真值表!D28</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="D27" s="30" t="str">
         <f>IF(真值表!E27=1," "&amp;真值表!E$1&amp;" ",IF(真值表!E27=0,"~"&amp;真值表!E$1&amp;" ",""))</f>
@@ -10399,15 +10678,15 @@
       </c>
       <c r="F27" s="30" t="str">
         <f>IF(真值表!G27=1," "&amp;真值表!G$1&amp;" ",IF(真值表!G27=0,"~"&amp;真值表!G$1&amp;" ",""))</f>
-        <v>~OP3 </v>
+        <v> OP3 </v>
       </c>
       <c r="G27" s="30" t="str">
         <f>IF(真值表!H27=1," "&amp;真值表!H$1&amp;" ",IF(真值表!H27=0,"~"&amp;真值表!H$1&amp;" ",""))</f>
-        <v>~OP2 </v>
+        <v> OP2 </v>
       </c>
       <c r="H27" s="30" t="str">
         <f>IF(真值表!I27=1," "&amp;真值表!I$1&amp;" ",IF(真值表!I27=0,"~"&amp;真值表!I$1&amp;" ",""))</f>
-        <v>~OP1 </v>
+        <v> OP1 </v>
       </c>
       <c r="I27" s="30" t="str">
         <f>IF(真值表!J27=1," "&amp;真值表!J$1&amp;" ",IF(真值表!J27=0,"~"&amp;真值表!J$1&amp;" ",""))</f>
@@ -10415,35 +10694,35 @@
       </c>
       <c r="J27" s="32" t="str">
         <f>IF(真值表!K27=1," "&amp;真值表!K$1&amp;" ",IF(真值表!K27=0,"~"&amp;真值表!K$1&amp;" ",""))</f>
-        <v>~F5 </v>
+        <v/>
       </c>
       <c r="K27" s="32" t="str">
         <f>IF(真值表!L27=1," "&amp;真值表!L$1&amp;" ",IF(真值表!L27=0,"~"&amp;真值表!L$1&amp;" ",""))</f>
-        <v>~F4 </v>
+        <v/>
       </c>
       <c r="L27" s="32" t="str">
         <f>IF(真值表!M27=1," "&amp;真值表!M$1&amp;" ",IF(真值表!M27=0,"~"&amp;真值表!M$1&amp;" ",""))</f>
-        <v>~F3 </v>
+        <v/>
       </c>
       <c r="M27" s="32" t="str">
         <f>IF(真值表!N27=1," "&amp;真值表!N$1&amp;" ",IF(真值表!N27=0,"~"&amp;真值表!N$1&amp;" ",""))</f>
-        <v>~F2 </v>
+        <v/>
       </c>
       <c r="N27" s="32" t="str">
         <f>IF(真值表!O27=1," "&amp;真值表!O$1&amp;" ",IF(真值表!O27=0,"~"&amp;真值表!O$1&amp;" ",""))</f>
-        <v>~F1 </v>
+        <v/>
       </c>
       <c r="O27" s="32" t="str">
         <f>IF(真值表!P27=1," "&amp;真值表!P$1&amp;" ",IF(真值表!P27=0,"~"&amp;真值表!P$1&amp;" ",""))</f>
-        <v>~F0 </v>
+        <v/>
       </c>
       <c r="P27" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>~OP5 ~OP4 ~OP3 ~OP2 ~OP1 ~OP0 ~F5 ~F4 ~F3 ~F2 ~F1 ~F0 +</v>
+        <v>~OP5 ~OP4  OP3  OP2  OP1 ~OP0 +</v>
       </c>
       <c r="Q27" s="38">
         <f>真值表!R27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="38">
         <f>真值表!S27</f>
@@ -10455,23 +10734,23 @@
       </c>
       <c r="T27" s="38">
         <f>真值表!U27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="38">
         <f>真值表!V27</f>
         <v>0</v>
       </c>
       <c r="V27" s="38">
-        <f>真值表!W27</f>
-        <v>0</v>
+        <f>真值表!X27</f>
+        <v>1</v>
       </c>
       <c r="W27" s="38">
-        <f>真值表!X27</f>
-        <v>0</v>
+        <f>真值表!Y27</f>
+        <v>1</v>
       </c>
       <c r="X27" s="38">
         <f>真值表!Y27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="38">
         <f>真值表!Z27</f>
@@ -10511,33 +10790,33 @@
       </c>
       <c r="AH27" s="42">
         <f>真值表!AI27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27" s="42">
         <f>真值表!AJ27</f>
         <v>0</v>
       </c>
       <c r="AJ27" s="42">
-        <f>真值表!AL27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" spans="1:36">
+        <f>真值表!AK27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" hidden="1" spans="1:36">
       <c r="A28" s="23" t="str">
         <f>真值表!B28</f>
         <v>SH</v>
       </c>
       <c r="B28" s="24">
         <f>真值表!C28</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="25">
+        <v>41</v>
+      </c>
+      <c r="C28" s="25" t="str">
         <f>真值表!D29</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="D28" s="26" t="str">
         <f>IF(真值表!E28=1," "&amp;真值表!E$1&amp;" ",IF(真值表!E28=0,"~"&amp;真值表!E$1&amp;" ",""))</f>
-        <v>~OP5 </v>
+        <v> OP5 </v>
       </c>
       <c r="E28" s="26" t="str">
         <f>IF(真值表!F28=1," "&amp;真值表!F$1&amp;" ",IF(真值表!F28=0,"~"&amp;真值表!F$1&amp;" ",""))</f>
@@ -10545,7 +10824,7 @@
       </c>
       <c r="F28" s="26" t="str">
         <f>IF(真值表!G28=1," "&amp;真值表!G$1&amp;" ",IF(真值表!G28=0,"~"&amp;真值表!G$1&amp;" ",""))</f>
-        <v>~OP3 </v>
+        <v> OP3 </v>
       </c>
       <c r="G28" s="26" t="str">
         <f>IF(真值表!H28=1," "&amp;真值表!H$1&amp;" ",IF(真值表!H28=0,"~"&amp;真值表!H$1&amp;" ",""))</f>
@@ -10557,35 +10836,35 @@
       </c>
       <c r="I28" s="26" t="str">
         <f>IF(真值表!J28=1," "&amp;真值表!J$1&amp;" ",IF(真值表!J28=0,"~"&amp;真值表!J$1&amp;" ",""))</f>
-        <v>~OP0 </v>
+        <v> OP0 </v>
       </c>
       <c r="J28" s="31" t="str">
         <f>IF(真值表!K28=1," "&amp;真值表!K$1&amp;" ",IF(真值表!K28=0,"~"&amp;真值表!K$1&amp;" ",""))</f>
-        <v>~F5 </v>
+        <v/>
       </c>
       <c r="K28" s="31" t="str">
         <f>IF(真值表!L28=1," "&amp;真值表!L$1&amp;" ",IF(真值表!L28=0,"~"&amp;真值表!L$1&amp;" ",""))</f>
-        <v>~F4 </v>
+        <v/>
       </c>
       <c r="L28" s="31" t="str">
         <f>IF(真值表!M28=1," "&amp;真值表!M$1&amp;" ",IF(真值表!M28=0,"~"&amp;真值表!M$1&amp;" ",""))</f>
-        <v>~F3 </v>
+        <v/>
       </c>
       <c r="M28" s="31" t="str">
         <f>IF(真值表!N28=1," "&amp;真值表!N$1&amp;" ",IF(真值表!N28=0,"~"&amp;真值表!N$1&amp;" ",""))</f>
-        <v>~F2 </v>
+        <v/>
       </c>
       <c r="N28" s="31" t="str">
         <f>IF(真值表!O28=1," "&amp;真值表!O$1&amp;" ",IF(真值表!O28=0,"~"&amp;真值表!O$1&amp;" ",""))</f>
-        <v>~F1 </v>
+        <v/>
       </c>
       <c r="O28" s="31" t="str">
         <f>IF(真值表!P28=1," "&amp;真值表!P$1&amp;" ",IF(真值表!P28=0,"~"&amp;真值表!P$1&amp;" ",""))</f>
-        <v>~F0 </v>
+        <v/>
       </c>
       <c r="P28" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>~OP5 ~OP4 ~OP3 ~OP2 ~OP1 ~OP0 ~F5 ~F4 ~F3 ~F2 ~F1 ~F0 +</v>
+        <v> OP5 ~OP4  OP3 ~OP2 ~OP1  OP0 +</v>
       </c>
       <c r="Q28" s="37">
         <f>真值表!R28</f>
@@ -10593,7 +10872,7 @@
       </c>
       <c r="R28" s="37">
         <f>真值表!S28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="37">
         <f>真值表!T28</f>
@@ -10601,11 +10880,11 @@
       </c>
       <c r="T28" s="37">
         <f>真值表!U28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="37">
         <f>真值表!V28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="37">
         <f>真值表!W28</f>
@@ -10613,11 +10892,11 @@
       </c>
       <c r="W28" s="37">
         <f>真值表!X28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="37">
         <f>真值表!Y28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="37">
         <f>真值表!Z28</f>
@@ -10661,21 +10940,21 @@
       </c>
       <c r="AI28" s="41">
         <f>真值表!AJ28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28" s="41">
-        <f>真值表!AL28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" spans="1:36">
+        <f>真值表!AK28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" hidden="1" spans="1:36">
       <c r="A29" s="27" t="str">
         <f>真值表!B29</f>
         <v>BLEZ</v>
       </c>
       <c r="B29" s="28">
         <f>真值表!C29</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C29" s="29">
         <f>真值表!D30</f>
@@ -10695,11 +10974,11 @@
       </c>
       <c r="G29" s="30" t="str">
         <f>IF(真值表!H29=1," "&amp;真值表!H$1&amp;" ",IF(真值表!H29=0,"~"&amp;真值表!H$1&amp;" ",""))</f>
-        <v>~OP2 </v>
+        <v> OP2 </v>
       </c>
       <c r="H29" s="30" t="str">
         <f>IF(真值表!I29=1," "&amp;真值表!I$1&amp;" ",IF(真值表!I29=0,"~"&amp;真值表!I$1&amp;" ",""))</f>
-        <v>~OP1 </v>
+        <v> OP1 </v>
       </c>
       <c r="I29" s="30" t="str">
         <f>IF(真值表!J29=1," "&amp;真值表!J$1&amp;" ",IF(真值表!J29=0,"~"&amp;真值表!J$1&amp;" ",""))</f>
@@ -10707,35 +10986,35 @@
       </c>
       <c r="J29" s="32" t="str">
         <f>IF(真值表!K29=1," "&amp;真值表!K$1&amp;" ",IF(真值表!K29=0,"~"&amp;真值表!K$1&amp;" ",""))</f>
-        <v>~F5 </v>
+        <v/>
       </c>
       <c r="K29" s="32" t="str">
         <f>IF(真值表!L29=1," "&amp;真值表!L$1&amp;" ",IF(真值表!L29=0,"~"&amp;真值表!L$1&amp;" ",""))</f>
-        <v>~F4 </v>
+        <v/>
       </c>
       <c r="L29" s="32" t="str">
         <f>IF(真值表!M29=1," "&amp;真值表!M$1&amp;" ",IF(真值表!M29=0,"~"&amp;真值表!M$1&amp;" ",""))</f>
-        <v>~F3 </v>
+        <v/>
       </c>
       <c r="M29" s="32" t="str">
         <f>IF(真值表!N29=1," "&amp;真值表!N$1&amp;" ",IF(真值表!N29=0,"~"&amp;真值表!N$1&amp;" ",""))</f>
-        <v>~F2 </v>
+        <v/>
       </c>
       <c r="N29" s="32" t="str">
         <f>IF(真值表!O29=1," "&amp;真值表!O$1&amp;" ",IF(真值表!O29=0,"~"&amp;真值表!O$1&amp;" ",""))</f>
-        <v>~F1 </v>
+        <v/>
       </c>
       <c r="O29" s="32" t="str">
         <f>IF(真值表!P29=1," "&amp;真值表!P$1&amp;" ",IF(真值表!P29=0,"~"&amp;真值表!P$1&amp;" ",""))</f>
-        <v>~F0 </v>
+        <v/>
       </c>
       <c r="P29" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>~OP5 ~OP4 ~OP3 ~OP2 ~OP1 ~OP0 ~F5 ~F4 ~F3 ~F2 ~F1 ~F0 +</v>
+        <v>~OP5 ~OP4 ~OP3  OP2  OP1 ~OP0 +</v>
       </c>
       <c r="Q29" s="38">
         <f>真值表!R29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="38">
         <f>真值表!S29</f>
@@ -10743,11 +11022,11 @@
       </c>
       <c r="S29" s="38">
         <f>真值表!T29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="38">
         <f>真值表!U29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="38">
         <v>0</v>
@@ -10809,1031 +11088,275 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="42">
-        <f>真值表!AL29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" spans="1:36">
-      <c r="A30" s="23">
-        <f>真值表!B30</f>
-        <v>0</v>
-      </c>
-      <c r="B30" s="24">
-        <f>真值表!C30</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="25">
-        <f>真值表!D31</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="26" t="str">
-        <f>IF(真值表!E30=1," "&amp;真值表!E$1&amp;" ",IF(真值表!E30=0,"~"&amp;真值表!E$1&amp;" ",""))</f>
-        <v>~OP5 </v>
-      </c>
-      <c r="E30" s="26" t="str">
-        <f>IF(真值表!F30=1," "&amp;真值表!F$1&amp;" ",IF(真值表!F30=0,"~"&amp;真值表!F$1&amp;" ",""))</f>
-        <v>~OP4 </v>
-      </c>
-      <c r="F30" s="26" t="str">
-        <f>IF(真值表!G30=1," "&amp;真值表!G$1&amp;" ",IF(真值表!G30=0,"~"&amp;真值表!G$1&amp;" ",""))</f>
-        <v>~OP3 </v>
-      </c>
-      <c r="G30" s="26" t="str">
-        <f>IF(真值表!H30=1," "&amp;真值表!H$1&amp;" ",IF(真值表!H30=0,"~"&amp;真值表!H$1&amp;" ",""))</f>
-        <v>~OP2 </v>
-      </c>
-      <c r="H30" s="26" t="str">
-        <f>IF(真值表!I30=1," "&amp;真值表!I$1&amp;" ",IF(真值表!I30=0,"~"&amp;真值表!I$1&amp;" ",""))</f>
-        <v>~OP1 </v>
-      </c>
-      <c r="I30" s="26" t="str">
-        <f>IF(真值表!J30=1," "&amp;真值表!J$1&amp;" ",IF(真值表!J30=0,"~"&amp;真值表!J$1&amp;" ",""))</f>
-        <v>~OP0 </v>
-      </c>
-      <c r="J30" s="31" t="str">
-        <f>IF(真值表!K30=1," "&amp;真值表!K$1&amp;" ",IF(真值表!K30=0,"~"&amp;真值表!K$1&amp;" ",""))</f>
-        <v>~F5 </v>
-      </c>
-      <c r="K30" s="31" t="str">
-        <f>IF(真值表!L30=1," "&amp;真值表!L$1&amp;" ",IF(真值表!L30=0,"~"&amp;真值表!L$1&amp;" ",""))</f>
-        <v>~F4 </v>
-      </c>
-      <c r="L30" s="31" t="str">
-        <f>IF(真值表!M30=1," "&amp;真值表!M$1&amp;" ",IF(真值表!M30=0,"~"&amp;真值表!M$1&amp;" ",""))</f>
-        <v>~F3 </v>
-      </c>
-      <c r="M30" s="31" t="str">
-        <f>IF(真值表!N30=1," "&amp;真值表!N$1&amp;" ",IF(真值表!N30=0,"~"&amp;真值表!N$1&amp;" ",""))</f>
-        <v>~F2 </v>
-      </c>
-      <c r="N30" s="31" t="str">
-        <f>IF(真值表!O30=1," "&amp;真值表!O$1&amp;" ",IF(真值表!O30=0,"~"&amp;真值表!O$1&amp;" ",""))</f>
-        <v>~F1 </v>
-      </c>
-      <c r="O30" s="31" t="str">
-        <f>IF(真值表!P30=1," "&amp;真值表!P$1&amp;" ",IF(真值表!P30=0,"~"&amp;真值表!P$1&amp;" ",""))</f>
-        <v>~F0 </v>
-      </c>
-      <c r="P30" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>~OP5 ~OP4 ~OP3 ~OP2 ~OP1 ~OP0 ~F5 ~F4 ~F3 ~F2 ~F1 ~F0 +</v>
-      </c>
-      <c r="Q30" s="37">
-        <f>真值表!R30</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="37">
-        <f>真值表!S30</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="37">
-        <f>真值表!T30</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="37">
-        <f>真值表!U30</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="37">
-        <f>真值表!V30</f>
-        <v>0</v>
-      </c>
-      <c r="V30" s="37">
-        <f>真值表!W30</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="37">
-        <f>真值表!X30</f>
-        <v>0</v>
-      </c>
-      <c r="X30" s="37">
-        <f>真值表!Y30</f>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="37">
-        <f>真值表!Z30</f>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="37">
-        <f>真值表!AA30</f>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="37">
-        <f>真值表!AB30</f>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="37">
-        <f>真值表!AC30</f>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="37">
-        <f>真值表!AD30</f>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="37">
-        <f>真值表!AE30</f>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="37">
-        <f>真值表!AF30</f>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="37">
-        <f>真值表!AG30</f>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="41">
-        <f>真值表!AH30</f>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="41">
-        <f>真值表!AI30</f>
-        <v>0</v>
-      </c>
-      <c r="AI30" s="41">
-        <f>真值表!AJ30</f>
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="41">
-        <f>真值表!AL30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" spans="1:36">
-      <c r="A31" s="27">
-        <f>真值表!B31</f>
-        <v>0</v>
-      </c>
-      <c r="B31" s="28">
-        <f>真值表!C31</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="29">
-        <f>真值表!D32</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="30" t="str">
-        <f>IF(真值表!E31=1," "&amp;真值表!E$1&amp;" ",IF(真值表!E31=0,"~"&amp;真值表!E$1&amp;" ",""))</f>
-        <v>~OP5 </v>
-      </c>
-      <c r="E31" s="30" t="str">
-        <f>IF(真值表!F31=1," "&amp;真值表!F$1&amp;" ",IF(真值表!F31=0,"~"&amp;真值表!F$1&amp;" ",""))</f>
-        <v>~OP4 </v>
-      </c>
-      <c r="F31" s="30" t="str">
-        <f>IF(真值表!G31=1," "&amp;真值表!G$1&amp;" ",IF(真值表!G31=0,"~"&amp;真值表!G$1&amp;" ",""))</f>
-        <v>~OP3 </v>
-      </c>
-      <c r="G31" s="30" t="str">
-        <f>IF(真值表!H31=1," "&amp;真值表!H$1&amp;" ",IF(真值表!H31=0,"~"&amp;真值表!H$1&amp;" ",""))</f>
-        <v>~OP2 </v>
-      </c>
-      <c r="H31" s="30" t="str">
-        <f>IF(真值表!I31=1," "&amp;真值表!I$1&amp;" ",IF(真值表!I31=0,"~"&amp;真值表!I$1&amp;" ",""))</f>
-        <v>~OP1 </v>
-      </c>
-      <c r="I31" s="30" t="str">
-        <f>IF(真值表!J31=1," "&amp;真值表!J$1&amp;" ",IF(真值表!J31=0,"~"&amp;真值表!J$1&amp;" ",""))</f>
-        <v>~OP0 </v>
-      </c>
-      <c r="J31" s="32" t="str">
-        <f>IF(真值表!K31=1," "&amp;真值表!K$1&amp;" ",IF(真值表!K31=0,"~"&amp;真值表!K$1&amp;" ",""))</f>
-        <v>~F5 </v>
-      </c>
-      <c r="K31" s="32" t="str">
-        <f>IF(真值表!L31=1," "&amp;真值表!L$1&amp;" ",IF(真值表!L31=0,"~"&amp;真值表!L$1&amp;" ",""))</f>
-        <v>~F4 </v>
-      </c>
-      <c r="L31" s="32" t="str">
-        <f>IF(真值表!M31=1," "&amp;真值表!M$1&amp;" ",IF(真值表!M31=0,"~"&amp;真值表!M$1&amp;" ",""))</f>
-        <v>~F3 </v>
-      </c>
-      <c r="M31" s="32" t="str">
-        <f>IF(真值表!N31=1," "&amp;真值表!N$1&amp;" ",IF(真值表!N31=0,"~"&amp;真值表!N$1&amp;" ",""))</f>
-        <v>~F2 </v>
-      </c>
-      <c r="N31" s="32" t="str">
-        <f>IF(真值表!O31=1," "&amp;真值表!O$1&amp;" ",IF(真值表!O31=0,"~"&amp;真值表!O$1&amp;" ",""))</f>
-        <v>~F1 </v>
-      </c>
-      <c r="O31" s="32" t="str">
-        <f>IF(真值表!P31=1," "&amp;真值表!P$1&amp;" ",IF(真值表!P31=0,"~"&amp;真值表!P$1&amp;" ",""))</f>
-        <v>~F0 </v>
-      </c>
-      <c r="P31" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>~OP5 ~OP4 ~OP3 ~OP2 ~OP1 ~OP0 ~F5 ~F4 ~F3 ~F2 ~F1 ~F0 +</v>
-      </c>
-      <c r="Q31" s="38">
-        <f>真值表!R31</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="38">
-        <f>真值表!S31</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="38">
-        <f>真值表!T31</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="38">
-        <f>真值表!U31</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="38">
-        <f>真值表!V31</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="38">
-        <f>真值表!W31</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="38">
-        <f>真值表!X31</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="38">
-        <f>真值表!Y31</f>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="38">
-        <f>真值表!Z31</f>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="38">
-        <f>真值表!AA31</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="38">
-        <f>真值表!AB31</f>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="38">
-        <f>真值表!AC31</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="38">
-        <f>真值表!AD31</f>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="38">
-        <f>真值表!AE31</f>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="38">
-        <f>真值表!AF31</f>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="38">
-        <f>真值表!AG31</f>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="42">
-        <f>真值表!AH31</f>
-        <v>0</v>
-      </c>
-      <c r="AH31" s="42">
-        <f>真值表!AI31</f>
-        <v>0</v>
-      </c>
-      <c r="AI31" s="42">
-        <f>真值表!AJ31</f>
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="42">
-        <f>真值表!AL31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" spans="1:36">
-      <c r="A32" s="23">
-        <f>真值表!B32</f>
-        <v>0</v>
-      </c>
-      <c r="B32" s="24">
-        <f>真值表!C32</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="25">
-        <f>真值表!D33</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="26" t="str">
-        <f>IF(真值表!E32=1," "&amp;真值表!E$1&amp;" ",IF(真值表!E32=0,"~"&amp;真值表!E$1&amp;" ",""))</f>
-        <v>~OP5 </v>
-      </c>
-      <c r="E32" s="26" t="str">
-        <f>IF(真值表!F32=1," "&amp;真值表!F$1&amp;" ",IF(真值表!F32=0,"~"&amp;真值表!F$1&amp;" ",""))</f>
-        <v>~OP4 </v>
-      </c>
-      <c r="F32" s="26" t="str">
-        <f>IF(真值表!G32=1," "&amp;真值表!G$1&amp;" ",IF(真值表!G32=0,"~"&amp;真值表!G$1&amp;" ",""))</f>
-        <v>~OP3 </v>
-      </c>
-      <c r="G32" s="26" t="str">
-        <f>IF(真值表!H32=1," "&amp;真值表!H$1&amp;" ",IF(真值表!H32=0,"~"&amp;真值表!H$1&amp;" ",""))</f>
-        <v>~OP2 </v>
-      </c>
-      <c r="H32" s="26" t="str">
-        <f>IF(真值表!I32=1," "&amp;真值表!I$1&amp;" ",IF(真值表!I32=0,"~"&amp;真值表!I$1&amp;" ",""))</f>
-        <v>~OP1 </v>
-      </c>
-      <c r="I32" s="26" t="str">
-        <f>IF(真值表!J32=1," "&amp;真值表!J$1&amp;" ",IF(真值表!J32=0,"~"&amp;真值表!J$1&amp;" ",""))</f>
-        <v>~OP0 </v>
-      </c>
-      <c r="J32" s="31" t="str">
-        <f>IF(真值表!K32=1," "&amp;真值表!K$1&amp;" ",IF(真值表!K32=0,"~"&amp;真值表!K$1&amp;" ",""))</f>
-        <v>~F5 </v>
-      </c>
-      <c r="K32" s="31" t="str">
-        <f>IF(真值表!L32=1," "&amp;真值表!L$1&amp;" ",IF(真值表!L32=0,"~"&amp;真值表!L$1&amp;" ",""))</f>
-        <v>~F4 </v>
-      </c>
-      <c r="L32" s="31" t="str">
-        <f>IF(真值表!M32=1," "&amp;真值表!M$1&amp;" ",IF(真值表!M32=0,"~"&amp;真值表!M$1&amp;" ",""))</f>
-        <v>~F3 </v>
-      </c>
-      <c r="M32" s="31" t="str">
-        <f>IF(真值表!N32=1," "&amp;真值表!N$1&amp;" ",IF(真值表!N32=0,"~"&amp;真值表!N$1&amp;" ",""))</f>
-        <v>~F2 </v>
-      </c>
-      <c r="N32" s="31" t="str">
-        <f>IF(真值表!O32=1," "&amp;真值表!O$1&amp;" ",IF(真值表!O32=0,"~"&amp;真值表!O$1&amp;" ",""))</f>
-        <v>~F1 </v>
-      </c>
-      <c r="O32" s="31" t="str">
-        <f>IF(真值表!P32=1," "&amp;真值表!P$1&amp;" ",IF(真值表!P32=0,"~"&amp;真值表!P$1&amp;" ",""))</f>
-        <v>~F0 </v>
-      </c>
-      <c r="P32" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>~OP5 ~OP4 ~OP3 ~OP2 ~OP1 ~OP0 ~F5 ~F4 ~F3 ~F2 ~F1 ~F0 +</v>
-      </c>
-      <c r="Q32" s="37">
-        <f>真值表!R32</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="37">
-        <f>真值表!S32</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="37">
-        <f>真值表!T32</f>
-        <v>0</v>
-      </c>
-      <c r="T32" s="37">
-        <f>真值表!U32</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="37">
-        <f>真值表!V32</f>
-        <v>0</v>
-      </c>
-      <c r="V32" s="37">
-        <f>真值表!W32</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="37">
-        <f>真值表!X32</f>
-        <v>0</v>
-      </c>
-      <c r="X32" s="37">
-        <f>真值表!Y32</f>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="37">
-        <f>真值表!Z32</f>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="37">
-        <f>真值表!AA32</f>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="37">
-        <f>真值表!AB32</f>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="37">
-        <f>真值表!AC32</f>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="37">
-        <f>真值表!AD32</f>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="37">
-        <f>真值表!AE32</f>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="37">
-        <f>真值表!AF32</f>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="37">
-        <f>真值表!AG32</f>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="41">
-        <f>真值表!AH32</f>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="41">
-        <f>真值表!AI32</f>
-        <v>0</v>
-      </c>
-      <c r="AI32" s="41">
-        <f>真值表!AJ32</f>
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="41">
-        <f>真值表!AL32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" spans="1:36">
-      <c r="A33" s="27">
-        <f>真值表!B33</f>
-        <v>0</v>
-      </c>
-      <c r="B33" s="28">
-        <f>真值表!C33</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="29">
-        <f>真值表!D34</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="30" t="str">
-        <f>IF(真值表!E33=1," "&amp;真值表!E$1&amp;" ",IF(真值表!E33=0,"~"&amp;真值表!E$1&amp;" ",""))</f>
-        <v>~OP5 </v>
-      </c>
-      <c r="E33" s="30" t="str">
-        <f>IF(真值表!F33=1," "&amp;真值表!F$1&amp;" ",IF(真值表!F33=0,"~"&amp;真值表!F$1&amp;" ",""))</f>
-        <v>~OP4 </v>
-      </c>
-      <c r="F33" s="30" t="str">
-        <f>IF(真值表!G33=1," "&amp;真值表!G$1&amp;" ",IF(真值表!G33=0,"~"&amp;真值表!G$1&amp;" ",""))</f>
-        <v>~OP3 </v>
-      </c>
-      <c r="G33" s="30" t="str">
-        <f>IF(真值表!H33=1," "&amp;真值表!H$1&amp;" ",IF(真值表!H33=0,"~"&amp;真值表!H$1&amp;" ",""))</f>
-        <v>~OP2 </v>
-      </c>
-      <c r="H33" s="30" t="str">
-        <f>IF(真值表!I33=1," "&amp;真值表!I$1&amp;" ",IF(真值表!I33=0,"~"&amp;真值表!I$1&amp;" ",""))</f>
-        <v>~OP1 </v>
-      </c>
-      <c r="I33" s="30" t="str">
-        <f>IF(真值表!J33=1," "&amp;真值表!J$1&amp;" ",IF(真值表!J33=0,"~"&amp;真值表!J$1&amp;" ",""))</f>
-        <v>~OP0 </v>
-      </c>
-      <c r="J33" s="32" t="str">
-        <f>IF(真值表!K33=1," "&amp;真值表!K$1&amp;" ",IF(真值表!K33=0,"~"&amp;真值表!K$1&amp;" ",""))</f>
-        <v>~F5 </v>
-      </c>
-      <c r="K33" s="32" t="str">
-        <f>IF(真值表!L33=1," "&amp;真值表!L$1&amp;" ",IF(真值表!L33=0,"~"&amp;真值表!L$1&amp;" ",""))</f>
-        <v>~F4 </v>
-      </c>
-      <c r="L33" s="32" t="str">
-        <f>IF(真值表!M33=1," "&amp;真值表!M$1&amp;" ",IF(真值表!M33=0,"~"&amp;真值表!M$1&amp;" ",""))</f>
-        <v>~F3 </v>
-      </c>
-      <c r="M33" s="32" t="str">
-        <f>IF(真值表!N33=1," "&amp;真值表!N$1&amp;" ",IF(真值表!N33=0,"~"&amp;真值表!N$1&amp;" ",""))</f>
-        <v>~F2 </v>
-      </c>
-      <c r="N33" s="32" t="str">
-        <f>IF(真值表!O33=1," "&amp;真值表!O$1&amp;" ",IF(真值表!O33=0,"~"&amp;真值表!O$1&amp;" ",""))</f>
-        <v>~F1 </v>
-      </c>
-      <c r="O33" s="32" t="str">
-        <f>IF(真值表!P33=1," "&amp;真值表!P$1&amp;" ",IF(真值表!P33=0,"~"&amp;真值表!P$1&amp;" ",""))</f>
-        <v>~F0 </v>
-      </c>
-      <c r="P33" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>~OP5 ~OP4 ~OP3 ~OP2 ~OP1 ~OP0 ~F5 ~F4 ~F3 ~F2 ~F1 ~F0 +</v>
-      </c>
-      <c r="Q33" s="38">
-        <f>真值表!R33</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="38">
-        <f>真值表!S33</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="38">
-        <f>真值表!T33</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="38">
-        <f>真值表!U33</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="38">
-        <f>真值表!V33</f>
-        <v>0</v>
-      </c>
-      <c r="V33" s="38">
-        <f>真值表!W33</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="38">
-        <f>真值表!X33</f>
-        <v>0</v>
-      </c>
-      <c r="X33" s="38">
-        <f>真值表!Y33</f>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="38">
-        <f>真值表!Z33</f>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="38">
-        <f>真值表!AA33</f>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="38">
-        <f>真值表!AB33</f>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="38">
-        <f>真值表!AC33</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="38">
-        <f>真值表!AD33</f>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="38">
-        <f>真值表!AE33</f>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="38">
-        <f>真值表!AF33</f>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="38">
-        <f>真值表!AG33</f>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="42">
-        <f>真值表!AH33</f>
-        <v>0</v>
-      </c>
-      <c r="AH33" s="42">
-        <f>真值表!AI33</f>
-        <v>0</v>
-      </c>
-      <c r="AI33" s="42">
-        <f>真值表!AJ33</f>
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="42">
-        <f>真值表!AL33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" spans="1:36">
-      <c r="A34" s="23">
-        <f>真值表!B35</f>
-        <v>0</v>
-      </c>
-      <c r="B34" s="24">
-        <f>真值表!C34</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="25">
-        <f>真值表!D35</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="26" t="str">
-        <f>IF(真值表!E34=1," "&amp;真值表!E$1&amp;" ",IF(真值表!E34=0,"~"&amp;真值表!E$1&amp;" ",""))</f>
-        <v>~OP5 </v>
-      </c>
-      <c r="E34" s="26" t="str">
-        <f>IF(真值表!F34=1," "&amp;真值表!F$1&amp;" ",IF(真值表!F34=0,"~"&amp;真值表!F$1&amp;" ",""))</f>
-        <v>~OP4 </v>
-      </c>
-      <c r="F34" s="26" t="str">
-        <f>IF(真值表!G34=1," "&amp;真值表!G$1&amp;" ",IF(真值表!G34=0,"~"&amp;真值表!G$1&amp;" ",""))</f>
-        <v>~OP3 </v>
-      </c>
-      <c r="G34" s="26" t="str">
-        <f>IF(真值表!H34=1," "&amp;真值表!H$1&amp;" ",IF(真值表!H34=0,"~"&amp;真值表!H$1&amp;" ",""))</f>
-        <v>~OP2 </v>
-      </c>
-      <c r="H34" s="26" t="str">
-        <f>IF(真值表!I34=1," "&amp;真值表!I$1&amp;" ",IF(真值表!I34=0,"~"&amp;真值表!I$1&amp;" ",""))</f>
-        <v>~OP1 </v>
-      </c>
-      <c r="I34" s="26" t="str">
-        <f>IF(真值表!J34=1," "&amp;真值表!J$1&amp;" ",IF(真值表!J34=0,"~"&amp;真值表!J$1&amp;" ",""))</f>
-        <v>~OP0 </v>
-      </c>
-      <c r="J34" s="31" t="str">
-        <f>IF(真值表!K34=1," "&amp;真值表!K$1&amp;" ",IF(真值表!K34=0,"~"&amp;真值表!K$1&amp;" ",""))</f>
-        <v>~F5 </v>
-      </c>
-      <c r="K34" s="31" t="str">
-        <f>IF(真值表!L34=1," "&amp;真值表!L$1&amp;" ",IF(真值表!L34=0,"~"&amp;真值表!L$1&amp;" ",""))</f>
-        <v>~F4 </v>
-      </c>
-      <c r="L34" s="31" t="str">
-        <f>IF(真值表!M34=1," "&amp;真值表!M$1&amp;" ",IF(真值表!M34=0,"~"&amp;真值表!M$1&amp;" ",""))</f>
-        <v>~F3 </v>
-      </c>
-      <c r="M34" s="31" t="str">
-        <f>IF(真值表!N34=1," "&amp;真值表!N$1&amp;" ",IF(真值表!N34=0,"~"&amp;真值表!N$1&amp;" ",""))</f>
-        <v>~F2 </v>
-      </c>
-      <c r="N34" s="31" t="str">
-        <f>IF(真值表!O34=1," "&amp;真值表!O$1&amp;" ",IF(真值表!O34=0,"~"&amp;真值表!O$1&amp;" ",""))</f>
-        <v>~F1 </v>
-      </c>
-      <c r="O34" s="31" t="str">
-        <f>IF(真值表!P34=1," "&amp;真值表!P$1&amp;" ",IF(真值表!P34=0,"~"&amp;真值表!P$1&amp;" ",""))</f>
-        <v>~F0 </v>
-      </c>
-      <c r="P34" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>~OP5 ~OP4 ~OP3 ~OP2 ~OP1 ~OP0 ~F5 ~F4 ~F3 ~F2 ~F1 ~F0 +</v>
-      </c>
-      <c r="Q34" s="37">
-        <f>真值表!R34</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="37">
-        <f>真值表!S34</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="37">
-        <f>真值表!T34</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="37">
-        <f>真值表!U34</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="37">
-        <f>真值表!V34</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="37">
-        <f>真值表!W34</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="37">
-        <f>真值表!X34</f>
-        <v>0</v>
-      </c>
-      <c r="X34" s="37">
-        <f>真值表!Y34</f>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="37">
-        <f>真值表!Z34</f>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="37">
-        <f>真值表!AA34</f>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="37">
-        <f>真值表!AB34</f>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="37">
-        <f>真值表!AC34</f>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="37">
-        <f>真值表!AD34</f>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="37">
-        <f>真值表!AE34</f>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="37">
-        <f>真值表!AF34</f>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="37">
-        <f>真值表!AG34</f>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="41">
-        <f>真值表!AH34</f>
-        <v>0</v>
-      </c>
-      <c r="AH34" s="41">
-        <f>真值表!AI34</f>
-        <v>0</v>
-      </c>
-      <c r="AI34" s="41">
-        <f>真值表!AJ34</f>
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="41">
-        <f>真值表!AL34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" spans="1:36">
-      <c r="A35" s="27">
-        <f>真值表!B36</f>
-        <v>0</v>
-      </c>
-      <c r="B35" s="28">
-        <f>真值表!C35</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="29">
-        <f>真值表!D36</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="30" t="str">
-        <f>IF(真值表!E35=1," "&amp;真值表!E$1&amp;" ",IF(真值表!E35=0,"~"&amp;真值表!E$1&amp;" ",""))</f>
-        <v>~OP5 </v>
-      </c>
-      <c r="E35" s="30" t="str">
-        <f>IF(真值表!F35=1," "&amp;真值表!F$1&amp;" ",IF(真值表!F35=0,"~"&amp;真值表!F$1&amp;" ",""))</f>
-        <v>~OP4 </v>
-      </c>
-      <c r="F35" s="30" t="str">
-        <f>IF(真值表!G35=1," "&amp;真值表!G$1&amp;" ",IF(真值表!G35=0,"~"&amp;真值表!G$1&amp;" ",""))</f>
-        <v>~OP3 </v>
-      </c>
-      <c r="G35" s="30" t="str">
-        <f>IF(真值表!H35=1," "&amp;真值表!H$1&amp;" ",IF(真值表!H35=0,"~"&amp;真值表!H$1&amp;" ",""))</f>
-        <v>~OP2 </v>
-      </c>
-      <c r="H35" s="30" t="str">
-        <f>IF(真值表!I35=1," "&amp;真值表!I$1&amp;" ",IF(真值表!I35=0,"~"&amp;真值表!I$1&amp;" ",""))</f>
-        <v>~OP1 </v>
-      </c>
-      <c r="I35" s="30" t="str">
-        <f>IF(真值表!J35=1," "&amp;真值表!J$1&amp;" ",IF(真值表!J35=0,"~"&amp;真值表!J$1&amp;" ",""))</f>
-        <v>~OP0 </v>
-      </c>
-      <c r="J35" s="32" t="str">
-        <f>IF(真值表!K35=1," "&amp;真值表!K$1&amp;" ",IF(真值表!K35=0,"~"&amp;真值表!K$1&amp;" ",""))</f>
-        <v>~F5 </v>
-      </c>
-      <c r="K35" s="32" t="str">
-        <f>IF(真值表!L35=1," "&amp;真值表!L$1&amp;" ",IF(真值表!L35=0,"~"&amp;真值表!L$1&amp;" ",""))</f>
-        <v>~F4 </v>
-      </c>
-      <c r="L35" s="32" t="str">
-        <f>IF(真值表!M35=1," "&amp;真值表!M$1&amp;" ",IF(真值表!M35=0,"~"&amp;真值表!M$1&amp;" ",""))</f>
-        <v>~F3 </v>
-      </c>
-      <c r="M35" s="32" t="str">
-        <f>IF(真值表!N35=1," "&amp;真值表!N$1&amp;" ",IF(真值表!N35=0,"~"&amp;真值表!N$1&amp;" ",""))</f>
-        <v>~F2 </v>
-      </c>
-      <c r="N35" s="32" t="str">
-        <f>IF(真值表!O35=1," "&amp;真值表!O$1&amp;" ",IF(真值表!O35=0,"~"&amp;真值表!O$1&amp;" ",""))</f>
-        <v>~F1 </v>
-      </c>
-      <c r="O35" s="32" t="str">
-        <f>IF(真值表!P35=1," "&amp;真值表!P$1&amp;" ",IF(真值表!P35=0,"~"&amp;真值表!P$1&amp;" ",""))</f>
-        <v>~F0 </v>
-      </c>
-      <c r="P35" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>~OP5 ~OP4 ~OP3 ~OP2 ~OP1 ~OP0 ~F5 ~F4 ~F3 ~F2 ~F1 ~F0 +</v>
-      </c>
-      <c r="Q35" s="38">
-        <f>真值表!R35</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="38">
-        <f>真值表!S35</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="38">
-        <f>真值表!T35</f>
-        <v>0</v>
-      </c>
-      <c r="T35" s="38">
-        <f>真值表!U35</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="38">
-        <f>真值表!V35</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="38">
-        <f>真值表!W35</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="38">
-        <f>真值表!X35</f>
-        <v>0</v>
-      </c>
-      <c r="X35" s="38">
-        <f>真值表!Y35</f>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="38">
-        <f>真值表!Z35</f>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="38">
-        <f>真值表!AA35</f>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="38">
-        <f>真值表!AB35</f>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="38">
-        <f>真值表!AC35</f>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="38">
-        <f>真值表!AD35</f>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="38">
-        <f>真值表!AE35</f>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="38">
-        <f>真值表!AF35</f>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="38">
-        <f>真值表!AG35</f>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="42">
-        <f>真值表!AH35</f>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="42">
-        <f>真值表!AI35</f>
-        <v>0</v>
-      </c>
-      <c r="AI35" s="42">
-        <f>真值表!AJ35</f>
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="42">
-        <f>真值表!AL35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" spans="1:36">
-      <c r="A36" s="23">
-        <f>真值表!B37</f>
-        <v>0</v>
-      </c>
-      <c r="B36" s="24">
-        <f>真值表!C36</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="25">
-        <f>真值表!D37</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="26" t="str">
-        <f>IF(真值表!E36=1," "&amp;真值表!E$1&amp;" ",IF(真值表!E36=0,"~"&amp;真值表!E$1&amp;" ",""))</f>
-        <v>~OP5 </v>
-      </c>
-      <c r="E36" s="26" t="str">
-        <f>IF(真值表!F36=1," "&amp;真值表!F$1&amp;" ",IF(真值表!F36=0,"~"&amp;真值表!F$1&amp;" ",""))</f>
-        <v>~OP4 </v>
-      </c>
-      <c r="F36" s="26" t="str">
-        <f>IF(真值表!G36=1," "&amp;真值表!G$1&amp;" ",IF(真值表!G36=0,"~"&amp;真值表!G$1&amp;" ",""))</f>
-        <v>~OP3 </v>
-      </c>
-      <c r="G36" s="26" t="str">
-        <f>IF(真值表!H36=1," "&amp;真值表!H$1&amp;" ",IF(真值表!H36=0,"~"&amp;真值表!H$1&amp;" ",""))</f>
-        <v>~OP2 </v>
-      </c>
-      <c r="H36" s="26" t="str">
-        <f>IF(真值表!I36=1," "&amp;真值表!I$1&amp;" ",IF(真值表!I36=0,"~"&amp;真值表!I$1&amp;" ",""))</f>
-        <v>~OP1 </v>
-      </c>
-      <c r="I36" s="26" t="str">
-        <f>IF(真值表!J36=1," "&amp;真值表!J$1&amp;" ",IF(真值表!J36=0,"~"&amp;真值表!J$1&amp;" ",""))</f>
-        <v>~OP0 </v>
-      </c>
-      <c r="J36" s="31" t="str">
-        <f>IF(真值表!K36=1," "&amp;真值表!K$1&amp;" ",IF(真值表!K36=0,"~"&amp;真值表!K$1&amp;" ",""))</f>
-        <v>~F5 </v>
-      </c>
-      <c r="K36" s="31" t="str">
-        <f>IF(真值表!L36=1," "&amp;真值表!L$1&amp;" ",IF(真值表!L36=0,"~"&amp;真值表!L$1&amp;" ",""))</f>
-        <v>~F4 </v>
-      </c>
-      <c r="L36" s="31" t="str">
-        <f>IF(真值表!M36=1," "&amp;真值表!M$1&amp;" ",IF(真值表!M36=0,"~"&amp;真值表!M$1&amp;" ",""))</f>
-        <v>~F3 </v>
-      </c>
-      <c r="M36" s="31" t="str">
-        <f>IF(真值表!N36=1," "&amp;真值表!N$1&amp;" ",IF(真值表!N36=0,"~"&amp;真值表!N$1&amp;" ",""))</f>
-        <v>~F2 </v>
-      </c>
-      <c r="N36" s="31" t="str">
-        <f>IF(真值表!O36=1," "&amp;真值表!O$1&amp;" ",IF(真值表!O36=0,"~"&amp;真值表!O$1&amp;" ",""))</f>
-        <v>~F1 </v>
-      </c>
-      <c r="O36" s="31" t="str">
-        <f>IF(真值表!P36=1," "&amp;真值表!P$1&amp;" ",IF(真值表!P36=0,"~"&amp;真值表!P$1&amp;" ",""))</f>
-        <v>~F0 </v>
-      </c>
-      <c r="P36" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>~OP5 ~OP4 ~OP3 ~OP2 ~OP1 ~OP0 ~F5 ~F4 ~F3 ~F2 ~F1 ~F0 +</v>
-      </c>
-      <c r="Q36" s="37">
-        <f>真值表!R36</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="37">
-        <f>真值表!S36</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="37">
-        <f>真值表!T36</f>
-        <v>0</v>
-      </c>
-      <c r="T36" s="37">
-        <f>真值表!U36</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="37">
-        <f>真值表!V36</f>
-        <v>0</v>
-      </c>
-      <c r="V36" s="37">
-        <f>真值表!W36</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="37">
-        <f>真值表!X36</f>
-        <v>0</v>
-      </c>
-      <c r="X36" s="37">
-        <f>真值表!Y36</f>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="37">
-        <f>真值表!Z36</f>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="37">
-        <f>真值表!AA36</f>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="37">
-        <f>真值表!AB36</f>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="37">
-        <f>真值表!AC36</f>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="37">
-        <f>真值表!AD36</f>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="37">
-        <f>真值表!AE36</f>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="37">
-        <f>真值表!AF36</f>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="37">
-        <f>真值表!AG36</f>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="41">
-        <f>真值表!AH36</f>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="41">
-        <f>真值表!AI36</f>
-        <v>0</v>
-      </c>
-      <c r="AI36" s="41">
-        <f>真值表!AJ36</f>
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="41">
-        <f>真值表!AL36</f>
-        <v>0</v>
-      </c>
+        <f>真值表!AK29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" hidden="1" spans="1:36">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="41"/>
+    </row>
+    <row r="31" ht="15.75" hidden="1" spans="1:36">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="42"/>
+      <c r="AJ31" s="42"/>
+    </row>
+    <row r="32" ht="15.75" hidden="1" spans="1:36">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="41"/>
+    </row>
+    <row r="33" ht="15.75" hidden="1" spans="1:36">
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="38"/>
+      <c r="AE33" s="38"/>
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="42"/>
+      <c r="AH33" s="42"/>
+      <c r="AI33" s="42"/>
+      <c r="AJ33" s="42"/>
+    </row>
+    <row r="34" ht="15.75" hidden="1" spans="1:36">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="41"/>
+      <c r="AH34" s="41"/>
+      <c r="AI34" s="41"/>
+      <c r="AJ34" s="41"/>
+    </row>
+    <row r="35" ht="15.75" hidden="1" spans="1:36">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="38"/>
+      <c r="AE35" s="38"/>
+      <c r="AF35" s="38"/>
+      <c r="AG35" s="42"/>
+      <c r="AH35" s="42"/>
+      <c r="AI35" s="42"/>
+      <c r="AJ35" s="42"/>
+    </row>
+    <row r="36" ht="15.75" hidden="1" spans="1:36">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="41"/>
+      <c r="AH36" s="41"/>
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="41"/>
     </row>
     <row r="37" ht="15.75" spans="1:36">
       <c r="A37" s="27"/>
@@ -13550,6 +13073,11 @@
     <protectedRange sqref="A1:C1" name="区域1"/>
   </protectedRanges>
   <autoFilter ref="A1:AJ36">
+    <filterColumn colId="30">
+      <customFilters>
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="P1">
@@ -13578,12 +13106,12 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路。&#10;&#10;另外重新筛选其他信号逻辑表达式时，应该先去掉原筛选！！！" sqref="U$1:AE$1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选对应信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制该列的表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="Q26:T1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="运算器功能选择端ALU_OP 的四位" prompt="S3 S2 S1 S0" sqref="Q1:T25"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="AF$1:AF$1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="逻辑表达式最小项" prompt="当前指令Opcode以及Func字段的逻辑表达式" sqref="P$1:P$1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="AF$1:AF$1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AG$1:AJ$1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路。&#10;&#10;另外重新筛选其他信号逻辑表达式时，应该先去掉原筛选！！！" sqref="U27:W27 Y27:AE27 X25:X27 U1:AE24 U25:W26 Y25:AE26 U28:AE1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AG1:AH1 AG2:AH2 AG3:AH29 AG30:AJ1048576 AI1:AJ29"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入MIPS指令字的OpCode的十进制数，后续隐藏列会自动生成OpCode字段6位的二进制位" sqref="B1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FUNC(十进制)" prompt="输入MIPS指令字的Func字段的10进制数，无Func字段填&quot;X&quot;，后续隐藏列会自动生成Func字段6位的二进制位" sqref="C1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="A1"/>
@@ -13602,14 +13130,14 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.247619047619" customWidth="1"/>
     <col min="2" max="2" width="11.5047619047619" customWidth="1"/>
-    <col min="3" max="3" width="49.6285714285714" customWidth="1"/>
+    <col min="3" max="3" width="99.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:3">
@@ -13617,98 +13145,98 @@
         <v>16</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B4" s="12">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B5" s="12">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B7" s="12">
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B8" s="12">
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B9" s="12">
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:3">
@@ -13719,7 +13247,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:3">
@@ -13730,7 +13258,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:3">
@@ -13741,7 +13269,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:3">
@@ -13752,7 +13280,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:3">
@@ -13763,13 +13291,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" ht="13.5"/>
     <row r="29" spans="6:6">
       <c r="F29" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -13801,13 +13329,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13818,10 +13346,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13832,10 +13360,10 @@
         <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13843,13 +13371,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13857,13 +13385,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13874,10 +13402,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13885,13 +13413,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13902,10 +13430,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13916,10 +13444,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13930,10 +13458,10 @@
         <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13944,10 +13472,10 @@
         <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13955,13 +13483,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13969,13 +13497,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13983,13 +13511,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
